--- a/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
+++ b/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CO/trans/BVS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81DBE57-2E0B-492A-8B39-306C57ECFDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17AED6C9-78F1-D643-A3B1-22E5B56B7BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="15340" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="BVS-psgr-LDVs" sheetId="2" r:id="rId5"/>
     <sheet name="BVS-psgr-HDVs" sheetId="101" r:id="rId6"/>
     <sheet name="BVS-psgr-aircraft" sheetId="105" r:id="rId7"/>
-    <sheet name="BVP-psgr-rail" sheetId="104" r:id="rId8"/>
+    <sheet name="BVS-psgr-rail" sheetId="104" r:id="rId8"/>
     <sheet name="BVS-psgr-ships" sheetId="103" r:id="rId9"/>
     <sheet name="BVS-psgr-motorbikes" sheetId="102" r:id="rId10"/>
     <sheet name="frgt" sheetId="106" r:id="rId11"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="173">
   <si>
     <t>Sources:</t>
   </si>
@@ -298,6 +298,273 @@
   </si>
   <si>
     <t>AEO 2023</t>
+  </si>
+  <si>
+    <t>values from original IRA analysis</t>
+  </si>
+  <si>
+    <t>values assuming a 75% cut in our original analysis to represent FEOC restrictions</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>WY</t>
   </si>
 </sst>
 </file>
@@ -309,10 +576,10 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="172" formatCode="m\-d"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +704,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF403F41"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF403F41"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -579,7 +861,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -617,11 +899,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="31" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="31" applyFont="1"/>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="31" applyFont="1"/>
@@ -636,7 +918,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="32" applyFont="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="31" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -687,9 +974,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -727,9 +1014,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -762,26 +1049,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -814,26 +1084,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1007,62 +1260,458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="69.28515625" customWidth="1"/>
+    <col min="2" max="2" width="69.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="39">
+        <v>45296</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="str">
+        <f>LOOKUP(B1,F2:G51,G2:G51)</f>
+        <v>CO</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F3" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F4" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2023</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F5" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F6" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F7" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F11" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F12" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F13" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F14" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F15" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F22" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F23" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F24" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F25" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F26" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F27" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F28" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F29" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F30" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
+      <c r="F31" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F32" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F33" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F34" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F35" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F36" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F37" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F38" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F39" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F40" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F41" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F42" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F43" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F44" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F45" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F46" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F47" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F48" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F49" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F50" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="G50" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F51" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="G51" s="38" t="s">
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1081,12 +1730,12 @@
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1830,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1276,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1371,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1466,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1561,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1656,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1751,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1862,7 +2511,7 @@
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1879,12 +2528,12 @@
       <selection activeCell="D7" sqref="D7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1979,7 +2628,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2084,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2179,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2274,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2369,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2474,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2569,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2691,12 +3340,12 @@
       <selection activeCell="D7" sqref="D7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2791,7 +3440,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2896,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2991,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3086,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3181,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3286,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3381,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3502,12 +4151,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -3602,7 +4251,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3697,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3792,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3887,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3982,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4077,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4172,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4283,12 +4932,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -4383,7 +5032,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4478,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4573,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4668,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4763,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4858,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4953,7 +5602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5064,12 +5713,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -5164,7 +5813,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5259,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5354,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5449,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5544,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5639,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5734,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5845,12 +6494,12 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -5945,7 +6594,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6040,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6135,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6230,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6325,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6420,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6515,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6617,670 +7266,784 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
-  <dimension ref="A1:AF53"/>
+  <dimension ref="A1:AF59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.5" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B3">
         <v>2021</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>2022</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>2023</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>2024</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>2025</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>2026</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>2027</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>2028</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>2029</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>2030</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>2031</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>2032</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>2033</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>2034</v>
       </c>
-      <c r="P2">
+      <c r="P3">
         <v>2035</v>
       </c>
-      <c r="Q2">
+      <c r="Q3">
         <v>2036</v>
       </c>
-      <c r="R2">
+      <c r="R3">
         <v>2037</v>
       </c>
-      <c r="S2">
+      <c r="S3">
         <v>2038</v>
       </c>
-      <c r="T2">
+      <c r="T3">
         <v>2039</v>
       </c>
-      <c r="U2">
+      <c r="U3">
         <v>2040</v>
       </c>
-      <c r="V2">
+      <c r="V3">
         <v>2041</v>
       </c>
-      <c r="W2">
+      <c r="W3">
         <v>2042</v>
       </c>
-      <c r="X2">
+      <c r="X3">
         <v>2043</v>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <v>2044</v>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <v>2045</v>
       </c>
-      <c r="AA2">
+      <c r="AA3">
         <v>2046</v>
       </c>
-      <c r="AB2">
+      <c r="AB3">
         <v>2047</v>
       </c>
-      <c r="AC2">
+      <c r="AC3">
         <v>2048</v>
       </c>
-      <c r="AD2">
+      <c r="AD3">
         <v>2049</v>
       </c>
-      <c r="AE2">
+      <c r="AE3">
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>2435.88</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1697.08</v>
       </c>
-      <c r="D3">
+      <c r="D4">
+        <f>D9*0.25</f>
+        <v>1020.0425</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:M4" si="0">E9*0.25</f>
+        <v>1000.8575</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1102.7774999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1057.2825</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1022.79</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1024.8150000000001</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1031.5474999999999</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1089.8074999999999</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1145.5925</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1156.375</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>6652.72</v>
+      </c>
+      <c r="C5">
+        <v>3617.05</v>
+      </c>
+      <c r="D5">
+        <f>D10*0.25</f>
+        <v>1020.0425</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:M5" si="1">E10*0.25</f>
+        <v>1000.8575</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1102.7774999999999</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1057.2825</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1022.79</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1024.8150000000001</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>1031.5474999999999</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>1089.8074999999999</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1145.5925</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>1156.375</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>2021</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+      <c r="D8">
+        <v>2023</v>
+      </c>
+      <c r="E8">
+        <v>2024</v>
+      </c>
+      <c r="F8">
+        <v>2025</v>
+      </c>
+      <c r="G8">
+        <v>2026</v>
+      </c>
+      <c r="H8">
+        <v>2027</v>
+      </c>
+      <c r="I8">
+        <v>2028</v>
+      </c>
+      <c r="J8">
+        <v>2029</v>
+      </c>
+      <c r="K8">
+        <v>2030</v>
+      </c>
+      <c r="L8">
+        <v>2031</v>
+      </c>
+      <c r="M8">
+        <v>2032</v>
+      </c>
+      <c r="N8">
+        <v>2033</v>
+      </c>
+      <c r="O8">
+        <v>2034</v>
+      </c>
+      <c r="P8">
+        <v>2035</v>
+      </c>
+      <c r="Q8">
+        <v>2036</v>
+      </c>
+      <c r="R8">
+        <v>2037</v>
+      </c>
+      <c r="S8">
+        <v>2038</v>
+      </c>
+      <c r="T8">
+        <v>2039</v>
+      </c>
+      <c r="U8">
+        <v>2040</v>
+      </c>
+      <c r="V8">
+        <v>2041</v>
+      </c>
+      <c r="W8">
+        <v>2042</v>
+      </c>
+      <c r="X8">
+        <v>2043</v>
+      </c>
+      <c r="Y8">
+        <v>2044</v>
+      </c>
+      <c r="Z8">
+        <v>2045</v>
+      </c>
+      <c r="AA8">
+        <v>2046</v>
+      </c>
+      <c r="AB8">
+        <v>2047</v>
+      </c>
+      <c r="AC8">
+        <v>2048</v>
+      </c>
+      <c r="AD8">
+        <v>2049</v>
+      </c>
+      <c r="AE8">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>2435.88</v>
+      </c>
+      <c r="C9">
+        <v>1697.08</v>
+      </c>
+      <c r="D9">
         <v>4080.17</v>
       </c>
-      <c r="E3">
+      <c r="E9">
         <v>4003.43</v>
       </c>
-      <c r="F3">
+      <c r="F9">
         <v>4411.1099999999997</v>
       </c>
-      <c r="G3">
+      <c r="G9">
         <v>4229.13</v>
       </c>
-      <c r="H3">
+      <c r="H9">
         <v>4091.16</v>
       </c>
-      <c r="I3">
+      <c r="I9">
         <v>4099.26</v>
       </c>
-      <c r="J3">
+      <c r="J9">
         <v>4126.1899999999996</v>
       </c>
-      <c r="K3">
+      <c r="K9">
         <v>4359.2299999999996</v>
       </c>
-      <c r="L3">
+      <c r="L9">
         <v>4582.37</v>
       </c>
-      <c r="M3">
+      <c r="M9">
         <v>4625.5</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B4">
+      <c r="B10">
         <v>6652.72</v>
       </c>
-      <c r="C4">
+      <c r="C10">
         <v>3617.05</v>
       </c>
-      <c r="D4">
+      <c r="D10">
         <v>4080.17</v>
       </c>
-      <c r="E4">
+      <c r="E10">
         <v>4003.43</v>
       </c>
-      <c r="F4">
+      <c r="F10">
         <v>4411.1099999999997</v>
       </c>
-      <c r="G4">
+      <c r="G10">
         <v>4229.13</v>
       </c>
-      <c r="H4">
+      <c r="H10">
         <v>4091.16</v>
       </c>
-      <c r="I4">
+      <c r="I10">
         <v>4099.26</v>
       </c>
-      <c r="J4">
+      <c r="J10">
         <v>4126.1899999999996</v>
       </c>
-      <c r="K4">
+      <c r="K10">
         <v>4359.2299999999996</v>
       </c>
-      <c r="L4">
+      <c r="L10">
         <v>4582.37</v>
       </c>
-      <c r="M4">
+      <c r="M10">
         <v>4625.5</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D19" s="8">
         <v>2020</v>
       </c>
-      <c r="E13" s="8">
-        <f t="shared" ref="E13:J13" si="0">D13+1</f>
+      <c r="E19" s="8">
+        <f t="shared" ref="E19:J19" si="2">D19+1</f>
         <v>2021</v>
       </c>
-      <c r="F13" s="8">
-        <f t="shared" si="0"/>
+      <c r="F19" s="8">
+        <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="G13" s="8">
-        <f t="shared" si="0"/>
+      <c r="G19" s="8">
+        <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="H13" s="8">
-        <f t="shared" si="0"/>
+      <c r="H19" s="8">
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="I13" s="8">
-        <f t="shared" si="0"/>
+      <c r="I19" s="8">
+        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
-      <c r="J13" s="8">
-        <f t="shared" si="0"/>
+      <c r="J19" s="8">
+        <f t="shared" si="2"/>
         <v>2026</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B20" s="8">
         <v>5.6849999999999996</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="8">
-        <v>4750</v>
-      </c>
-      <c r="E14" s="8">
-        <v>4750</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3000</v>
-      </c>
-      <c r="G14" s="8">
-        <v>3000</v>
-      </c>
-      <c r="H14" s="8">
-        <v>2400</v>
-      </c>
-      <c r="I14" s="8">
-        <v>2400</v>
-      </c>
-      <c r="J14" s="8">
-        <v>2400</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="8">
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="8">
-        <v>2250</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2250</v>
-      </c>
-      <c r="F15" s="8">
-        <v>2250</v>
-      </c>
-      <c r="G15" s="8">
-        <v>2250</v>
-      </c>
-      <c r="H15" s="8">
-        <v>2250</v>
-      </c>
-      <c r="I15" s="8">
-        <v>2250</v>
-      </c>
-      <c r="J15" s="8">
-        <v>2250</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="R15" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F16" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G16" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H16" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I16" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J16" s="8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="8">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2000</v>
-      </c>
-      <c r="F17" s="11">
-        <v>2000</v>
-      </c>
-      <c r="G17" s="11">
-        <v>2000</v>
-      </c>
-      <c r="H17" s="11">
-        <v>2000</v>
-      </c>
-      <c r="I17" s="11">
-        <v>2000</v>
-      </c>
-      <c r="J17" s="11">
-        <v>2000</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="8">
-        <v>28.64</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R18" s="13"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="8">
-        <v>39.35</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E19" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F19" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G19" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H19" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I19" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J19" s="8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="8">
-        <v>4.665</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="14">
-        <v>1500</v>
-      </c>
-      <c r="E20" s="14">
-        <v>1500</v>
-      </c>
-      <c r="F20" s="14">
-        <v>1500</v>
-      </c>
-      <c r="G20" s="14">
-        <v>1500</v>
-      </c>
-      <c r="H20" s="14">
-        <v>1500</v>
-      </c>
-      <c r="I20" s="14">
-        <v>1500</v>
-      </c>
-      <c r="J20" s="14">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="8">
+        <v>4750</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4750</v>
+      </c>
+      <c r="F20" s="8">
+        <v>3000</v>
+      </c>
+      <c r="G20" s="8">
+        <v>3000</v>
+      </c>
+      <c r="H20" s="8">
+        <v>2400</v>
+      </c>
+      <c r="I20" s="8">
+        <v>2400</v>
+      </c>
+      <c r="J20" s="8">
+        <v>2400</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B21" s="8">
-        <v>1.341</v>
+        <v>3.5710000000000002</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="8">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="E21" s="8">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="F21" s="8">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="G21" s="8">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="H21" s="8">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="I21" s="8">
-        <v>2000</v>
+        <v>2250</v>
       </c>
       <c r="J21" s="8">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2250</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="R21" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B22" s="8">
-        <v>6.0380000000000003</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>23</v>
@@ -7307,76 +8070,85 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B23" s="8">
-        <v>6.8730000000000002</v>
-      </c>
-      <c r="C23" s="8" t="s">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E23" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F23" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G23" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H23" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I23" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J23" s="8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="H23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="J23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B24" s="8">
-        <v>8.8849999999999998</v>
+        <v>28.64</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="8">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="E24" s="8">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="8">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G24" s="8">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H24" s="8">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I24" s="8">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J24" s="8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" s="13"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B25" s="8">
-        <v>4.1760000000000002</v>
+        <v>39.35</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>23</v>
@@ -7403,700 +8175,892 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B26" s="8">
-        <v>0.624</v>
+        <v>4.665</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="14">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1500</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1500</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H26" s="14">
+        <v>1500</v>
+      </c>
+      <c r="I26" s="14">
+        <v>1500</v>
+      </c>
+      <c r="J26" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1.341</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G27" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H27" s="8">
+        <v>2000</v>
+      </c>
+      <c r="I27" s="8">
+        <v>2000</v>
+      </c>
+      <c r="J27" s="8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="8">
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E28" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G28" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I28" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J28" s="8">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="8">
+        <v>6.8730000000000002</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E29" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F29" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G29" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H29" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I29" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J29" s="8">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="8">
+        <v>8.8849999999999998</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="F30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="G30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="H30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="I30" s="8">
+        <v>5000</v>
+      </c>
+      <c r="J30" s="8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="8">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E31" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F31" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H31" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I31" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J31" s="8">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0.624</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="8">
         <v>4000</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E32" s="8">
         <v>4000</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F32" s="8">
         <v>4000</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G32" s="8">
         <v>4000</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H32" s="8">
         <v>4000</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I32" s="8">
         <v>4000</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J32" s="8">
         <v>4000</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K32" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="8">
-        <f>B28-SUM(B14:B26)</f>
+      <c r="B33" s="8">
+        <f>B34-SUM(B20:B32)</f>
         <v>210.304</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
-        <v>0</v>
-      </c>
-      <c r="J27" s="8">
-        <v>0</v>
-      </c>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0</v>
+      </c>
+      <c r="I33" s="8">
+        <v>0</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0</v>
+      </c>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B34" s="8">
         <v>329.5</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B32">
+      <c r="B38">
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C35">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="C41">
         <v>2021</v>
       </c>
-      <c r="D35">
+      <c r="D41">
         <v>2022</v>
       </c>
-      <c r="E35">
+      <c r="E41">
         <v>2023</v>
       </c>
-      <c r="F35">
+      <c r="F41">
         <v>2024</v>
       </c>
-      <c r="G35">
+      <c r="G41">
         <v>2025</v>
       </c>
-      <c r="H35">
+      <c r="H41">
         <v>2026</v>
       </c>
-      <c r="I35">
+      <c r="I41">
         <v>2027</v>
       </c>
-      <c r="J35">
+      <c r="J41">
         <v>2028</v>
       </c>
-      <c r="K35">
+      <c r="K41">
         <v>2029</v>
       </c>
-      <c r="L35">
+      <c r="L41">
         <v>2030</v>
       </c>
-      <c r="M35">
+      <c r="M41">
         <v>2031</v>
       </c>
-      <c r="N35">
+      <c r="N41">
         <v>2032</v>
       </c>
-      <c r="O35">
+      <c r="O41">
         <v>2033</v>
       </c>
-      <c r="P35">
+      <c r="P41">
         <v>2034</v>
       </c>
-      <c r="Q35">
+      <c r="Q41">
         <v>2035</v>
       </c>
-      <c r="R35">
+      <c r="R41">
         <v>2036</v>
       </c>
-      <c r="S35">
+      <c r="S41">
         <v>2037</v>
       </c>
-      <c r="T35">
+      <c r="T41">
         <v>2038</v>
       </c>
-      <c r="U35">
+      <c r="U41">
         <v>2039</v>
       </c>
-      <c r="V35">
+      <c r="V41">
         <v>2040</v>
       </c>
-      <c r="W35">
+      <c r="W41">
         <v>2041</v>
       </c>
-      <c r="X35">
+      <c r="X41">
         <v>2042</v>
       </c>
-      <c r="Y35">
+      <c r="Y41">
         <v>2043</v>
       </c>
-      <c r="Z35">
+      <c r="Z41">
         <v>2044</v>
       </c>
-      <c r="AA35">
+      <c r="AA41">
         <v>2045</v>
       </c>
-      <c r="AB35">
+      <c r="AB41">
         <v>2046</v>
       </c>
-      <c r="AC35">
+      <c r="AC41">
         <v>2047</v>
       </c>
-      <c r="AD35">
+      <c r="AD41">
         <v>2048</v>
       </c>
-      <c r="AE35">
+      <c r="AE41">
         <v>2049</v>
       </c>
-      <c r="AF35">
+      <c r="AF41">
         <v>2050</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C36" s="5">
-        <f>SUMPRODUCT(E14:E27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
-        <v>600.15334597875574</v>
-      </c>
-      <c r="D36" s="5">
-        <f>SUMPRODUCT(F14:F27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
-        <v>576.45146813353574</v>
-      </c>
-      <c r="E36" s="5">
-        <f>SUMPRODUCT(G14:G27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
-        <v>576.45146813353574</v>
-      </c>
-      <c r="F36" s="5">
-        <f>SUMPRODUCT(H14:H27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="G36" s="5">
-        <f>SUMPRODUCT(I14:I27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="H36" s="5">
-        <f>SUMPRODUCT(J14:J27,$B$14:$B$27)/SUM($B$14:$B$27)*$B$32</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="I36" s="5">
-        <f>H36</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="J36" s="5">
-        <f t="shared" ref="J36:AF36" si="1">I36</f>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="K36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="L36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="M36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="N36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="O36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AF36" s="5">
-        <f t="shared" si="1"/>
-        <v>568.32511001517457</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="C42" s="5">
+        <f>SUMIFS(E$19:E$32,$A19:$A32,About!$B$2)</f>
+        <v>4750</v>
+      </c>
+      <c r="D42" s="5">
+        <f>SUMIFS(F$19:F$32,$A19:$A32,About!$B$2)</f>
+        <v>3000</v>
+      </c>
+      <c r="E42" s="5">
+        <f>SUMIFS(G$19:G$32,$A19:$A32,About!$B$2)</f>
+        <v>3000</v>
+      </c>
+      <c r="F42" s="5">
+        <f>SUMIFS(H$19:H$32,$A19:$A32,About!$B$2)</f>
+        <v>2400</v>
+      </c>
+      <c r="G42" s="5">
+        <f>SUMIFS(I$19:I$32,$A19:$A32,About!$B$2)</f>
+        <v>2400</v>
+      </c>
+      <c r="H42" s="5">
+        <f>SUMIFS(J$19:J$32,$A19:$A32,About!$B$2)</f>
+        <v>2400</v>
+      </c>
+      <c r="I42" s="5">
+        <f>SUMIFS(K$19:K$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <f>SUMIFS(L$19:L$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
+        <f>SUMIFS(M$19:M$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <f>SUMIFS(N$19:N$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
+        <f>SUMIFS(O$19:O$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="5">
+        <f>SUMIFS(P$19:P$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="5">
+        <f>SUMIFS(Q$19:Q$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="5">
+        <f>SUMIFS(R$19:R$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="5">
+        <f>SUMIFS(S$19:S$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="5">
+        <f>SUMIFS(T$19:T$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="5">
+        <f>SUMIFS(U$19:U$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="T42" s="5">
+        <f>SUMIFS(V$19:V$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="U42" s="5">
+        <f>SUMIFS(W$19:W$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="5">
+        <f>SUMIFS(X$19:X$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W42" s="5">
+        <f>SUMIFS(Y$19:Y$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="X42" s="5">
+        <f>SUMIFS(Z$19:Z$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="5">
+        <f>SUMIFS(AA$19:AA$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="5">
+        <f>SUMIFS(AB$19:AB$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="5">
+        <f>SUMIFS(AC$19:AC$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="5">
+        <f>SUMIFS(AD$19:AD$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="5">
+        <f>SUMIFS(AE$19:AE$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="5">
+        <f>SUMIFS(AF$19:AF$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="5">
+        <f>SUMIFS(AG$19:AG$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="5">
+        <f>SUMIFS(AH$19:AH$32,$A19:$A32,About!$B$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="C39">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="C45">
         <v>2021</v>
       </c>
-      <c r="D39">
+      <c r="D45">
         <v>2022</v>
       </c>
-      <c r="E39">
+      <c r="E45">
         <v>2023</v>
       </c>
-      <c r="F39">
+      <c r="F45">
         <v>2024</v>
       </c>
-      <c r="G39">
+      <c r="G45">
         <v>2025</v>
       </c>
-      <c r="H39">
+      <c r="H45">
         <v>2026</v>
       </c>
-      <c r="I39">
+      <c r="I45">
         <v>2027</v>
       </c>
-      <c r="J39">
+      <c r="J45">
         <v>2028</v>
       </c>
-      <c r="K39">
+      <c r="K45">
         <v>2029</v>
       </c>
-      <c r="L39">
+      <c r="L45">
         <v>2030</v>
       </c>
-      <c r="M39">
+      <c r="M45">
         <v>2031</v>
       </c>
-      <c r="N39">
+      <c r="N45">
         <v>2032</v>
       </c>
-      <c r="O39">
+      <c r="O45">
         <v>2033</v>
       </c>
-      <c r="P39">
+      <c r="P45">
         <v>2034</v>
       </c>
-      <c r="Q39">
+      <c r="Q45">
         <v>2035</v>
       </c>
-      <c r="R39">
+      <c r="R45">
         <v>2036</v>
       </c>
-      <c r="S39">
+      <c r="S45">
         <v>2037</v>
       </c>
-      <c r="T39">
+      <c r="T45">
         <v>2038</v>
       </c>
-      <c r="U39">
+      <c r="U45">
         <v>2039</v>
       </c>
-      <c r="V39">
+      <c r="V45">
         <v>2040</v>
       </c>
-      <c r="W39">
+      <c r="W45">
         <v>2041</v>
       </c>
-      <c r="X39">
+      <c r="X45">
         <v>2042</v>
       </c>
-      <c r="Y39">
+      <c r="Y45">
         <v>2043</v>
       </c>
-      <c r="Z39">
+      <c r="Z45">
         <v>2044</v>
       </c>
-      <c r="AA39">
+      <c r="AA45">
         <v>2045</v>
       </c>
-      <c r="AB39">
+      <c r="AB45">
         <v>2046</v>
       </c>
-      <c r="AC39">
+      <c r="AC45">
         <v>2047</v>
       </c>
-      <c r="AD39">
+      <c r="AD45">
         <v>2048</v>
       </c>
-      <c r="AE39">
+      <c r="AE45">
         <v>2049</v>
       </c>
-      <c r="AF39">
+      <c r="AF45">
         <v>2050</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5">
-        <f>B3+C36</f>
-        <v>3036.0333459787557</v>
-      </c>
-      <c r="D40" s="5">
-        <f t="shared" ref="D40:AF40" si="2">C3+D36</f>
-        <v>2273.5314681335358</v>
-      </c>
-      <c r="E40" s="5">
-        <f t="shared" si="2"/>
-        <v>4656.6214681335359</v>
-      </c>
-      <c r="F40" s="5">
-        <f t="shared" si="2"/>
-        <v>4571.7551100151741</v>
-      </c>
-      <c r="G40" s="5">
-        <f t="shared" si="2"/>
-        <v>4979.4351100151744</v>
-      </c>
-      <c r="H40" s="5">
-        <f t="shared" si="2"/>
-        <v>4797.4551100151748</v>
-      </c>
-      <c r="I40" s="5">
-        <f t="shared" si="2"/>
-        <v>4659.4851100151745</v>
-      </c>
-      <c r="J40" s="5">
-        <f t="shared" si="2"/>
-        <v>4667.5851100151749</v>
-      </c>
-      <c r="K40" s="5">
-        <f t="shared" si="2"/>
-        <v>4694.5151100151743</v>
-      </c>
-      <c r="L40" s="5">
-        <f t="shared" si="2"/>
-        <v>4927.5551100151743</v>
-      </c>
-      <c r="M40" s="5">
-        <f t="shared" si="2"/>
-        <v>5150.6951100151746</v>
-      </c>
-      <c r="N40" s="5">
-        <f t="shared" si="2"/>
-        <v>5193.8251100151747</v>
-      </c>
-      <c r="O40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AF40" s="5">
-        <f t="shared" si="2"/>
-        <v>568.32511001517457</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5">
+        <f>B4+C42</f>
+        <v>7185.88</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" ref="D46:AF46" si="3">C4+D42</f>
+        <v>4697.08</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="3"/>
+        <v>4020.0425</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="3"/>
+        <v>3400.8575000000001</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="3"/>
+        <v>3502.7775000000001</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="3"/>
+        <v>3457.2825000000003</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="3"/>
+        <v>1022.79</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="3"/>
+        <v>1024.8150000000001</v>
+      </c>
+      <c r="K46" s="5">
+        <f t="shared" si="3"/>
+        <v>1031.5474999999999</v>
+      </c>
+      <c r="L46" s="5">
+        <f t="shared" si="3"/>
+        <v>1089.8074999999999</v>
+      </c>
+      <c r="M46" s="5">
+        <f t="shared" si="3"/>
+        <v>1145.5925</v>
+      </c>
+      <c r="N46" s="5">
+        <f t="shared" si="3"/>
+        <v>1156.375</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="5">
-        <f>B4+C36</f>
-        <v>7252.8733459787563</v>
-      </c>
-      <c r="D41" s="5">
-        <f t="shared" ref="D41:AF41" si="3">C4+D36</f>
-        <v>4193.501468133536</v>
-      </c>
-      <c r="E41" s="5">
-        <f t="shared" si="3"/>
-        <v>4656.6214681335359</v>
-      </c>
-      <c r="F41" s="5">
-        <f t="shared" si="3"/>
-        <v>4571.7551100151741</v>
-      </c>
-      <c r="G41" s="5">
-        <f t="shared" si="3"/>
-        <v>4979.4351100151744</v>
-      </c>
-      <c r="H41" s="5">
-        <f t="shared" si="3"/>
-        <v>4797.4551100151748</v>
-      </c>
-      <c r="I41" s="5">
-        <f t="shared" si="3"/>
-        <v>4659.4851100151745</v>
-      </c>
-      <c r="J41" s="5">
-        <f t="shared" si="3"/>
-        <v>4667.5851100151749</v>
-      </c>
-      <c r="K41" s="5">
-        <f t="shared" si="3"/>
-        <v>4694.5151100151743</v>
-      </c>
-      <c r="L41" s="5">
-        <f t="shared" si="3"/>
-        <v>4927.5551100151743</v>
-      </c>
-      <c r="M41" s="5">
-        <f t="shared" si="3"/>
-        <v>5150.6951100151746</v>
-      </c>
-      <c r="N41" s="5">
-        <f t="shared" si="3"/>
-        <v>5193.8251100151747</v>
-      </c>
-      <c r="O41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="P41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Q41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="R41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="S41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="T41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="U41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="V41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="W41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="X41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Y41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="Z41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AA41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AB41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AC41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AD41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AE41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
-      </c>
-      <c r="AF41" s="5">
-        <f t="shared" si="3"/>
-        <v>568.32511001517457</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="17"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="16"/>
+      <c r="C47" s="5">
+        <f>B5+C42</f>
+        <v>11402.720000000001</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" ref="D47:AF47" si="4">C5+D42</f>
+        <v>6617.05</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="4"/>
+        <v>4020.0425</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="4"/>
+        <v>3400.8575000000001</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="4"/>
+        <v>3502.7775000000001</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="4"/>
+        <v>3457.2825000000003</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="4"/>
+        <v>1022.79</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="4"/>
+        <v>1024.8150000000001</v>
+      </c>
+      <c r="K47" s="5">
+        <f t="shared" si="4"/>
+        <v>1031.5474999999999</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" si="4"/>
+        <v>1089.8074999999999</v>
+      </c>
+      <c r="M47" s="5">
+        <f t="shared" si="4"/>
+        <v>1145.5925</v>
+      </c>
+      <c r="N47" s="5">
+        <f t="shared" si="4"/>
+        <v>1156.375</v>
+      </c>
+      <c r="O47" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X47" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB47" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD47" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{0B42DB82-B744-4AA0-B817-45B85EC34540}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{C245D4AA-4F3C-42F0-8772-AD708218D115}"/>
-    <hyperlink ref="R15" r:id="rId3" xr:uid="{52E38CEB-73A7-4855-878F-13F2616EA324}"/>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{0B42DB82-B744-4AA0-B817-45B85EC34540}"/>
+    <hyperlink ref="C17" r:id="rId2" xr:uid="{C245D4AA-4F3C-42F0-8772-AD708218D115}"/>
+    <hyperlink ref="R21" r:id="rId3" xr:uid="{52E38CEB-73A7-4855-878F-13F2616EA324}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8106,21 +9070,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4700B1-78D7-456C-A4C4-AB085247994E}">
   <dimension ref="A1:AL776"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="23" customWidth="1"/>
-    <col min="5" max="38" width="7.5703125" style="23" customWidth="1"/>
-    <col min="39" max="16384" width="12.5703125" style="23"/>
+    <col min="1" max="1" width="51.83203125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="23" customWidth="1"/>
+    <col min="5" max="38" width="7.5" style="23" customWidth="1"/>
+    <col min="39" max="16384" width="12.5" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
@@ -8162,7 +9126,7 @@
       <c r="AK1" s="22"/>
       <c r="AL1" s="22"/>
     </row>
-    <row r="2" spans="1:38" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="105" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>75</v>
       </c>
@@ -8204,7 +9168,7 @@
       <c r="AK2" s="25"/>
       <c r="AL2" s="25"/>
     </row>
-    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -8244,7 +9208,7 @@
       <c r="AK3" s="25"/>
       <c r="AL3" s="25"/>
     </row>
-    <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>76</v>
       </c>
@@ -8288,7 +9252,7 @@
       <c r="AK4" s="25"/>
       <c r="AL4" s="25"/>
     </row>
-    <row r="5" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>77</v>
       </c>
@@ -8332,7 +9296,7 @@
       <c r="AK5" s="25"/>
       <c r="AL5" s="25"/>
     </row>
-    <row r="6" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -8372,7 +9336,7 @@
       <c r="AK6" s="25"/>
       <c r="AL6" s="25"/>
     </row>
-    <row r="7" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>78</v>
       </c>
@@ -8381,7 +9345,7 @@
         <v>27004</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>79</v>
       </c>
@@ -8390,7 +9354,7 @@
         <v>31400</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
       <c r="B9" s="27"/>
     </row>
@@ -8471,7 +9435,7 @@
         <v>10279.777009851599</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>54</v>
       </c>
@@ -8513,7 +9477,7 @@
       <c r="AK13" s="22"/>
       <c r="AL13" s="22"/>
     </row>
-    <row r="14" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>55</v>
       </c>
@@ -8521,10 +9485,10 @@
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
     </row>
-    <row r="16" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>56</v>
       </c>
@@ -8532,22 +9496,22 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:33" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:33" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:33" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:33" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>59</v>
       </c>
@@ -8561,7 +9525,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>62</v>
       </c>
@@ -8576,7 +9540,7 @@
         <v>5887.5</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
         <v>65</v>
       </c>
@@ -8591,7 +9555,7 @@
         <v>5887.5</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
         <v>67</v>
       </c>
@@ -8606,13 +9570,13 @@
         <v>31400</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:33" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" ht="14" x14ac:dyDescent="0.2">
       <c r="A28" s="30" t="s">
         <v>82</v>
       </c>
@@ -8649,7 +9613,7 @@
       <c r="AF28" s="30"/>
       <c r="AG28" s="30"/>
     </row>
-    <row r="29" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="14" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -8684,7 +9648,7 @@
       <c r="AF29" s="30"/>
       <c r="AG29" s="30"/>
     </row>
-    <row r="30" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="14" x14ac:dyDescent="0.2">
       <c r="A30" s="31" t="s">
         <v>70</v>
       </c>
@@ -8721,7 +9685,7 @@
       <c r="AF30" s="30"/>
       <c r="AG30" s="30"/>
     </row>
-    <row r="31" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" ht="14" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
         <v>83</v>
       </c>
@@ -8815,7 +9779,7 @@
       <c r="AE31" s="30"/>
       <c r="AF31" s="30"/>
     </row>
-    <row r="32" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
         <v>71</v>
       </c>
@@ -8909,7 +9873,7 @@
       <c r="AE32" s="34"/>
       <c r="AF32" s="30"/>
     </row>
-    <row r="33" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="14" x14ac:dyDescent="0.2">
       <c r="A33" s="30" t="s">
         <v>72</v>
       </c>
@@ -9003,7 +9967,7 @@
       <c r="AE33" s="34"/>
       <c r="AF33" s="30"/>
     </row>
-    <row r="34" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="14" x14ac:dyDescent="0.2">
       <c r="A34" s="30" t="s">
         <v>73</v>
       </c>
@@ -9097,867 +10061,867 @@
       <c r="AE34" s="34"/>
       <c r="AF34" s="30"/>
     </row>
-    <row r="36" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" ht="14" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="27">
-        <f>SUMPRODUCT(B32:B34,$D$23:$D$25)/SUM(B32:B34)</f>
+        <f t="shared" ref="B36:AD36" si="1">SUMPRODUCT(B32:B34,$D$23:$D$25)/SUM(B32:B34)</f>
         <v>10134.948146095066</v>
       </c>
       <c r="C36" s="27">
-        <f>SUMPRODUCT(C32:C34,$D$23:$D$25)/SUM(C32:C34)</f>
+        <f t="shared" si="1"/>
         <v>10121.162702145082</v>
       </c>
       <c r="D36" s="27">
-        <f>SUMPRODUCT(D32:D34,$D$23:$D$25)/SUM(D32:D34)</f>
+        <f t="shared" si="1"/>
         <v>10059.772494365814</v>
       </c>
       <c r="E36" s="27">
-        <f>SUMPRODUCT(E32:E34,$D$23:$D$25)/SUM(E32:E34)</f>
+        <f t="shared" si="1"/>
         <v>10050.763799597085</v>
       </c>
       <c r="F36" s="27">
-        <f>SUMPRODUCT(F32:F34,$D$23:$D$25)/SUM(F32:F34)</f>
+        <f t="shared" si="1"/>
         <v>10127.428607069427</v>
       </c>
       <c r="G36" s="27">
-        <f>SUMPRODUCT(G32:G34,$D$23:$D$25)/SUM(G32:G34)</f>
+        <f t="shared" si="1"/>
         <v>10269.11524721545</v>
       </c>
       <c r="H36" s="27">
-        <f>SUMPRODUCT(H32:H34,$D$23:$D$25)/SUM(H32:H34)</f>
+        <f t="shared" si="1"/>
         <v>10350.781370900584</v>
       </c>
       <c r="I36" s="27">
-        <f>SUMPRODUCT(I32:I34,$D$23:$D$25)/SUM(I32:I34)</f>
+        <f t="shared" si="1"/>
         <v>10353.674088089921</v>
       </c>
       <c r="J36" s="27">
-        <f>SUMPRODUCT(J32:J34,$D$23:$D$25)/SUM(J32:J34)</f>
+        <f t="shared" si="1"/>
         <v>10294.239800360298</v>
       </c>
       <c r="K36" s="27">
-        <f>SUMPRODUCT(K32:K34,$D$23:$D$25)/SUM(K32:K34)</f>
+        <f t="shared" si="1"/>
         <v>10251.903689786537</v>
       </c>
       <c r="L36" s="27">
-        <f>SUMPRODUCT(L32:L34,$D$23:$D$25)/SUM(L32:L34)</f>
+        <f t="shared" si="1"/>
         <v>10279.777009851599</v>
       </c>
       <c r="M36" s="27">
-        <f>SUMPRODUCT(M32:M34,$D$23:$D$25)/SUM(M32:M34)</f>
+        <f t="shared" si="1"/>
         <v>10325.709491436844</v>
       </c>
       <c r="N36" s="27">
-        <f>SUMPRODUCT(N32:N34,$D$23:$D$25)/SUM(N32:N34)</f>
+        <f t="shared" si="1"/>
         <v>10344.230833049938</v>
       </c>
       <c r="O36" s="27">
-        <f>SUMPRODUCT(O32:O34,$D$23:$D$25)/SUM(O32:O34)</f>
+        <f t="shared" si="1"/>
         <v>10359.12748221428</v>
       </c>
       <c r="P36" s="27">
-        <f>SUMPRODUCT(P32:P34,$D$23:$D$25)/SUM(P32:P34)</f>
+        <f t="shared" si="1"/>
         <v>10371.638430973771</v>
       </c>
       <c r="Q36" s="27">
-        <f>SUMPRODUCT(Q32:Q34,$D$23:$D$25)/SUM(Q32:Q34)</f>
+        <f t="shared" si="1"/>
         <v>10380.548547191598</v>
       </c>
       <c r="R36" s="27">
-        <f>SUMPRODUCT(R32:R34,$D$23:$D$25)/SUM(R32:R34)</f>
+        <f t="shared" si="1"/>
         <v>10382.950508948947</v>
       </c>
       <c r="S36" s="27">
-        <f>SUMPRODUCT(S32:S34,$D$23:$D$25)/SUM(S32:S34)</f>
+        <f t="shared" si="1"/>
         <v>10380.927010758403</v>
       </c>
       <c r="T36" s="27">
-        <f>SUMPRODUCT(T32:T34,$D$23:$D$25)/SUM(T32:T34)</f>
+        <f t="shared" si="1"/>
         <v>10398.663134138134</v>
       </c>
       <c r="U36" s="27">
-        <f>SUMPRODUCT(U32:U34,$D$23:$D$25)/SUM(U32:U34)</f>
+        <f t="shared" si="1"/>
         <v>10422.653431517481</v>
       </c>
       <c r="V36" s="27">
-        <f>SUMPRODUCT(V32:V34,$D$23:$D$25)/SUM(V32:V34)</f>
+        <f t="shared" si="1"/>
         <v>10434.319910781423</v>
       </c>
       <c r="W36" s="27">
-        <f>SUMPRODUCT(W32:W34,$D$23:$D$25)/SUM(W32:W34)</f>
+        <f t="shared" si="1"/>
         <v>10455.739600691937</v>
       </c>
       <c r="X36" s="27">
-        <f>SUMPRODUCT(X32:X34,$D$23:$D$25)/SUM(X32:X34)</f>
+        <f t="shared" si="1"/>
         <v>10432.932814907192</v>
       </c>
       <c r="Y36" s="27">
-        <f>SUMPRODUCT(Y32:Y34,$D$23:$D$25)/SUM(Y32:Y34)</f>
+        <f t="shared" si="1"/>
         <v>10374.231186923143</v>
       </c>
       <c r="Z36" s="27">
-        <f>SUMPRODUCT(Z32:Z34,$D$23:$D$25)/SUM(Z32:Z34)</f>
+        <f t="shared" si="1"/>
         <v>10332.172107247137</v>
       </c>
       <c r="AA36" s="27">
-        <f>SUMPRODUCT(AA32:AA34,$D$23:$D$25)/SUM(AA32:AA34)</f>
+        <f t="shared" si="1"/>
         <v>10324.781329795693</v>
       </c>
       <c r="AB36" s="27">
-        <f>SUMPRODUCT(AB32:AB34,$D$23:$D$25)/SUM(AB32:AB34)</f>
+        <f t="shared" si="1"/>
         <v>10326.315629830769</v>
       </c>
       <c r="AC36" s="27">
-        <f>SUMPRODUCT(AC32:AC34,$D$23:$D$25)/SUM(AC32:AC34)</f>
+        <f t="shared" si="1"/>
         <v>10310.34979051626</v>
       </c>
       <c r="AD36" s="27">
-        <f>SUMPRODUCT(AD32:AD34,$D$23:$D$25)/SUM(AD32:AD34)</f>
+        <f t="shared" si="1"/>
         <v>9558.932689351499</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:32" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="14" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -9975,7 +10939,7 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9989,16 +10953,16 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:AE8"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="53.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -10093,132 +11057,132 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19">
-        <f>'Passenger Vehicle Calculations'!C40</f>
-        <v>3036.0333459787557</v>
+        <f>'Passenger Vehicle Calculations'!C46</f>
+        <v>7185.88</v>
       </c>
       <c r="C2" s="19">
-        <f>'Passenger Vehicle Calculations'!D40</f>
-        <v>2273.5314681335358</v>
+        <f>'Passenger Vehicle Calculations'!D46</f>
+        <v>4697.08</v>
       </c>
       <c r="D2" s="19">
-        <f>'Passenger Vehicle Calculations'!E40</f>
-        <v>4656.6214681335359</v>
+        <f>'Passenger Vehicle Calculations'!E46</f>
+        <v>4020.0425</v>
       </c>
       <c r="E2" s="19">
-        <f>'Passenger Vehicle Calculations'!F40</f>
-        <v>4571.7551100151741</v>
+        <f>'Passenger Vehicle Calculations'!F46</f>
+        <v>3400.8575000000001</v>
       </c>
       <c r="F2" s="19">
-        <f>'Passenger Vehicle Calculations'!G40</f>
-        <v>4979.4351100151744</v>
+        <f>'Passenger Vehicle Calculations'!G46</f>
+        <v>3502.7775000000001</v>
       </c>
       <c r="G2" s="19">
-        <f>'Passenger Vehicle Calculations'!H40</f>
-        <v>4797.4551100151748</v>
+        <f>'Passenger Vehicle Calculations'!H46</f>
+        <v>3457.2825000000003</v>
       </c>
       <c r="H2" s="19">
-        <f>'Passenger Vehicle Calculations'!I40</f>
-        <v>4659.4851100151745</v>
+        <f>'Passenger Vehicle Calculations'!I46</f>
+        <v>1022.79</v>
       </c>
       <c r="I2" s="19">
-        <f>'Passenger Vehicle Calculations'!J40</f>
-        <v>4667.5851100151749</v>
+        <f>'Passenger Vehicle Calculations'!J46</f>
+        <v>1024.8150000000001</v>
       </c>
       <c r="J2" s="19">
-        <f>'Passenger Vehicle Calculations'!K40</f>
-        <v>4694.5151100151743</v>
+        <f>'Passenger Vehicle Calculations'!K46</f>
+        <v>1031.5474999999999</v>
       </c>
       <c r="K2" s="19">
-        <f>'Passenger Vehicle Calculations'!L40</f>
-        <v>4927.5551100151743</v>
+        <f>'Passenger Vehicle Calculations'!L46</f>
+        <v>1089.8074999999999</v>
       </c>
       <c r="L2" s="19">
-        <f>'Passenger Vehicle Calculations'!M40</f>
-        <v>5150.6951100151746</v>
+        <f>'Passenger Vehicle Calculations'!M46</f>
+        <v>1145.5925</v>
       </c>
       <c r="M2" s="19">
-        <f>'Passenger Vehicle Calculations'!N40</f>
-        <v>5193.8251100151747</v>
+        <f>'Passenger Vehicle Calculations'!N46</f>
+        <v>1156.375</v>
       </c>
       <c r="N2" s="19">
-        <f>'Passenger Vehicle Calculations'!O40</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!O46</f>
+        <v>0</v>
       </c>
       <c r="O2" s="19">
-        <f>'Passenger Vehicle Calculations'!P40</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!P46</f>
+        <v>0</v>
       </c>
       <c r="P2" s="19">
-        <f>'Passenger Vehicle Calculations'!Q40</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!Q46</f>
+        <v>0</v>
       </c>
       <c r="Q2" s="19">
-        <f>'Passenger Vehicle Calculations'!R40</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!R46</f>
+        <v>0</v>
       </c>
       <c r="R2" s="19">
-        <f>'Passenger Vehicle Calculations'!S40</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!S46</f>
+        <v>0</v>
       </c>
       <c r="S2" s="19">
-        <f>'Passenger Vehicle Calculations'!T40</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!T46</f>
+        <v>0</v>
       </c>
       <c r="T2" s="19">
-        <f>'Passenger Vehicle Calculations'!U40</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!U46</f>
+        <v>0</v>
       </c>
       <c r="U2" s="19">
-        <f>'Passenger Vehicle Calculations'!V40</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!V46</f>
+        <v>0</v>
       </c>
       <c r="V2" s="19">
-        <f>'Passenger Vehicle Calculations'!W40</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!W46</f>
+        <v>0</v>
       </c>
       <c r="W2" s="19">
-        <f>'Passenger Vehicle Calculations'!X40</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!X46</f>
+        <v>0</v>
       </c>
       <c r="X2" s="19">
-        <f>'Passenger Vehicle Calculations'!Y40</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!Y46</f>
+        <v>0</v>
       </c>
       <c r="Y2" s="19">
-        <f>'Passenger Vehicle Calculations'!Z40</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!Z46</f>
+        <v>0</v>
       </c>
       <c r="Z2" s="19">
-        <f>'Passenger Vehicle Calculations'!AA40</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!AA46</f>
+        <v>0</v>
       </c>
       <c r="AA2" s="19">
-        <f>'Passenger Vehicle Calculations'!AB40</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!AB46</f>
+        <v>0</v>
       </c>
       <c r="AB2" s="19">
-        <f>'Passenger Vehicle Calculations'!AC40</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!AC46</f>
+        <v>0</v>
       </c>
       <c r="AC2" s="19">
-        <f>'Passenger Vehicle Calculations'!AD40</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!AD46</f>
+        <v>0</v>
       </c>
       <c r="AD2" s="19">
-        <f>'Passenger Vehicle Calculations'!AE40</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!AE46</f>
+        <v>0</v>
       </c>
       <c r="AE2" s="19">
-        <f>'Passenger Vehicle Calculations'!AF40</f>
-        <v>568.32511001517457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+        <f>'Passenger Vehicle Calculations'!AF46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10313,7 +11277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10408,7 +11372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10503,132 +11467,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="19">
-        <f>'Passenger Vehicle Calculations'!C41</f>
-        <v>7252.8733459787563</v>
+        <f>'Passenger Vehicle Calculations'!C47</f>
+        <v>11402.720000000001</v>
       </c>
       <c r="C6" s="19">
-        <f>'Passenger Vehicle Calculations'!D41</f>
-        <v>4193.501468133536</v>
+        <f>'Passenger Vehicle Calculations'!D47</f>
+        <v>6617.05</v>
       </c>
       <c r="D6" s="19">
-        <f>'Passenger Vehicle Calculations'!E41</f>
-        <v>4656.6214681335359</v>
+        <f>'Passenger Vehicle Calculations'!E47</f>
+        <v>4020.0425</v>
       </c>
       <c r="E6" s="19">
-        <f>'Passenger Vehicle Calculations'!F41</f>
-        <v>4571.7551100151741</v>
+        <f>'Passenger Vehicle Calculations'!F47</f>
+        <v>3400.8575000000001</v>
       </c>
       <c r="F6" s="19">
-        <f>'Passenger Vehicle Calculations'!G41</f>
-        <v>4979.4351100151744</v>
+        <f>'Passenger Vehicle Calculations'!G47</f>
+        <v>3502.7775000000001</v>
       </c>
       <c r="G6" s="19">
-        <f>'Passenger Vehicle Calculations'!H41</f>
-        <v>4797.4551100151748</v>
+        <f>'Passenger Vehicle Calculations'!H47</f>
+        <v>3457.2825000000003</v>
       </c>
       <c r="H6" s="19">
-        <f>'Passenger Vehicle Calculations'!I41</f>
-        <v>4659.4851100151745</v>
+        <f>'Passenger Vehicle Calculations'!I47</f>
+        <v>1022.79</v>
       </c>
       <c r="I6" s="19">
-        <f>'Passenger Vehicle Calculations'!J41</f>
-        <v>4667.5851100151749</v>
+        <f>'Passenger Vehicle Calculations'!J47</f>
+        <v>1024.8150000000001</v>
       </c>
       <c r="J6" s="19">
-        <f>'Passenger Vehicle Calculations'!K41</f>
-        <v>4694.5151100151743</v>
+        <f>'Passenger Vehicle Calculations'!K47</f>
+        <v>1031.5474999999999</v>
       </c>
       <c r="K6" s="19">
-        <f>'Passenger Vehicle Calculations'!L41</f>
-        <v>4927.5551100151743</v>
+        <f>'Passenger Vehicle Calculations'!L47</f>
+        <v>1089.8074999999999</v>
       </c>
       <c r="L6" s="19">
-        <f>'Passenger Vehicle Calculations'!M41</f>
-        <v>5150.6951100151746</v>
+        <f>'Passenger Vehicle Calculations'!M47</f>
+        <v>1145.5925</v>
       </c>
       <c r="M6" s="19">
-        <f>'Passenger Vehicle Calculations'!N41</f>
-        <v>5193.8251100151747</v>
+        <f>'Passenger Vehicle Calculations'!N47</f>
+        <v>1156.375</v>
       </c>
       <c r="N6" s="19">
-        <f>'Passenger Vehicle Calculations'!O41</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!O47</f>
+        <v>0</v>
       </c>
       <c r="O6" s="19">
-        <f>'Passenger Vehicle Calculations'!P41</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!P47</f>
+        <v>0</v>
       </c>
       <c r="P6" s="19">
-        <f>'Passenger Vehicle Calculations'!Q41</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!Q47</f>
+        <v>0</v>
       </c>
       <c r="Q6" s="19">
-        <f>'Passenger Vehicle Calculations'!R41</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!R47</f>
+        <v>0</v>
       </c>
       <c r="R6" s="19">
-        <f>'Passenger Vehicle Calculations'!S41</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!S47</f>
+        <v>0</v>
       </c>
       <c r="S6" s="19">
-        <f>'Passenger Vehicle Calculations'!T41</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!T47</f>
+        <v>0</v>
       </c>
       <c r="T6" s="19">
-        <f>'Passenger Vehicle Calculations'!U41</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!U47</f>
+        <v>0</v>
       </c>
       <c r="U6" s="19">
-        <f>'Passenger Vehicle Calculations'!V41</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!V47</f>
+        <v>0</v>
       </c>
       <c r="V6" s="19">
-        <f>'Passenger Vehicle Calculations'!W41</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!W47</f>
+        <v>0</v>
       </c>
       <c r="W6" s="19">
-        <f>'Passenger Vehicle Calculations'!X41</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!X47</f>
+        <v>0</v>
       </c>
       <c r="X6" s="19">
-        <f>'Passenger Vehicle Calculations'!Y41</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!Y47</f>
+        <v>0</v>
       </c>
       <c r="Y6" s="19">
-        <f>'Passenger Vehicle Calculations'!Z41</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!Z47</f>
+        <v>0</v>
       </c>
       <c r="Z6" s="19">
-        <f>'Passenger Vehicle Calculations'!AA41</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!AA47</f>
+        <v>0</v>
       </c>
       <c r="AA6" s="19">
-        <f>'Passenger Vehicle Calculations'!AB41</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!AB47</f>
+        <v>0</v>
       </c>
       <c r="AB6" s="19">
-        <f>'Passenger Vehicle Calculations'!AC41</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!AC47</f>
+        <v>0</v>
       </c>
       <c r="AC6" s="19">
-        <f>'Passenger Vehicle Calculations'!AD41</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!AD47</f>
+        <v>0</v>
       </c>
       <c r="AD6" s="19">
-        <f>'Passenger Vehicle Calculations'!AE41</f>
-        <v>568.32511001517457</v>
+        <f>'Passenger Vehicle Calculations'!AE47</f>
+        <v>0</v>
       </c>
       <c r="AE6" s="19">
-        <f>'Passenger Vehicle Calculations'!AF41</f>
-        <v>568.32511001517457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+        <f>'Passenger Vehicle Calculations'!AF47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -10723,7 +11687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10735,115 +11699,115 @@
       </c>
       <c r="D8" s="19">
         <f>D2</f>
-        <v>4656.6214681335359</v>
+        <v>4020.0425</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" ref="E8:AE8" si="0">E2</f>
-        <v>4571.7551100151741</v>
+        <v>3400.8575000000001</v>
       </c>
       <c r="F8" s="19">
         <f t="shared" si="0"/>
-        <v>4979.4351100151744</v>
+        <v>3502.7775000000001</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" si="0"/>
-        <v>4797.4551100151748</v>
+        <v>3457.2825000000003</v>
       </c>
       <c r="H8" s="19">
         <f t="shared" si="0"/>
-        <v>4659.4851100151745</v>
+        <v>1022.79</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>4667.5851100151749</v>
+        <v>1024.8150000000001</v>
       </c>
       <c r="J8" s="19">
         <f t="shared" si="0"/>
-        <v>4694.5151100151743</v>
+        <v>1031.5474999999999</v>
       </c>
       <c r="K8" s="19">
         <f t="shared" si="0"/>
-        <v>4927.5551100151743</v>
+        <v>1089.8074999999999</v>
       </c>
       <c r="L8" s="19">
         <f t="shared" si="0"/>
-        <v>5150.6951100151746</v>
+        <v>1145.5925</v>
       </c>
       <c r="M8" s="19">
         <f t="shared" si="0"/>
-        <v>5193.8251100151747</v>
+        <v>1156.375</v>
       </c>
       <c r="N8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>0</v>
       </c>
       <c r="O8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>0</v>
       </c>
       <c r="P8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>0</v>
       </c>
       <c r="R8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>0</v>
       </c>
       <c r="S8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>0</v>
       </c>
       <c r="T8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>0</v>
       </c>
       <c r="U8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>0</v>
       </c>
       <c r="V8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>0</v>
       </c>
       <c r="W8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>0</v>
       </c>
       <c r="X8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="19">
         <f t="shared" si="0"/>
-        <v>568.32511001517457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10860,15 +11824,15 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:M7"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -10963,7 +11927,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11068,7 +12032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11163,7 +12127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11258,7 +12222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11353,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11458,7 +12422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -11553,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -11674,12 +12638,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -11774,7 +12738,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11869,7 +12833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11964,7 +12928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12059,7 +13023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12154,7 +13118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12249,7 +13213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -12344,7 +13308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12451,16 +13415,16 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -12555,7 +13519,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12650,7 +13614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12745,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12840,7 +13804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12935,7 +13899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13030,7 +13994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13125,7 +14089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13236,12 +14200,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -13336,7 +14300,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13431,7 +14395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13526,7 +14490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13621,7 +14585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13716,7 +14680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13811,7 +14775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13906,7 +14870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>

--- a/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
+++ b/InputData/trans/BVS/BAU Vehicle Subsidy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CO/trans/BVS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\trans\BVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17AED6C9-78F1-D643-A3B1-22E5B56B7BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEFB94FD-BEAD-4592-8839-0400B2BEAA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="15340" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1415" yWindow="1415" windowWidth="14400" windowHeight="7290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="175">
   <si>
     <t>Sources:</t>
   </si>
@@ -87,9 +87,6 @@
     <t>It also omits states that do not offer a rebate but do exempt EVs from sales, use, or excise taxes.</t>
   </si>
   <si>
-    <t>State Rebates + Tax Credits Updated 8/11/2021</t>
-  </si>
-  <si>
     <t>TC</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>LDV</t>
   </si>
   <si>
-    <t>Note: average of cars and truck subsidies, which are different</t>
-  </si>
-  <si>
     <t>CT</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>Note: Pennsylvania offers a $1750 rebate, but only to the first 250 qualified applicants.</t>
-  </si>
-  <si>
     <t>Total Tax Credit (2012$)</t>
   </si>
   <si>
@@ -565,6 +556,21 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>State Rebates + Tax Credits Updated 7/26/2024</t>
+  </si>
+  <si>
+    <t>Note: maximum of 5000 for vehicles under 80,000. additional 2500 available for vehicles under 35000</t>
+  </si>
+  <si>
+    <t>Note: CVRP closed to new applications as of Nov 2023</t>
+  </si>
+  <si>
+    <t>Note: value was previously 1500 but after digging I don’t believe LA has ever had a state tax credit</t>
+  </si>
+  <si>
+    <t>Note; renewed on annual basis</t>
   </si>
 </sst>
 </file>
@@ -1263,454 +1269,454 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="69.33203125" customWidth="1"/>
+    <col min="2" max="2" width="69.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C1" s="39">
-        <v>45296</v>
+        <v>45501</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B2" t="str">
         <f>LOOKUP(B1,F2:G51,G2:G51)</f>
         <v>CO</v>
       </c>
       <c r="F2" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="38" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="38" t="s">
+      <c r="G4" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B5" s="3">
         <v>2023</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B7" s="4"/>
       <c r="F7" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F8" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F9" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F10" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F8" s="38" t="s">
+      <c r="G10" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F9" s="38" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F11" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="38" t="s">
+      <c r="G11" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B12" s="3"/>
       <c r="F12" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F13" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F13" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B14" s="4"/>
       <c r="F14" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F15" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="38" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F16" s="38" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="38" t="s">
+      <c r="G16" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="38" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F17" s="38" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="38" t="s">
+      <c r="G17" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="38" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F18" s="38" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F17" s="38" t="s">
+      <c r="G18" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="38" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F19" s="38" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F18" s="38" t="s">
+      <c r="G19" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F20" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G20" s="38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F21" s="38" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F19" s="38" t="s">
+      <c r="G21" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F22" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F20" s="38" t="s">
+      <c r="G22" s="38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F23" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F21" s="38" t="s">
+      <c r="G23" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F22" s="38" t="s">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F24" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F23" s="38" t="s">
+      <c r="G24" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="38" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F25" s="38" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F24" s="38" t="s">
+      <c r="G25" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F25" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B26" s="3"/>
       <c r="F26" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F27" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F27" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B28" s="4"/>
       <c r="F28" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F29" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="38" t="s">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F30" s="38" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F29" s="38" t="s">
+      <c r="G30" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F30" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="38" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A31" s="1"/>
       <c r="F31" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="F32" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F33" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="G33" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F34" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F35" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F36" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F37" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F38" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F39" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F40" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F41" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F42" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F43" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F44" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F45" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F46" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" s="38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F32" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F33" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F34" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F35" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="G35" s="38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F36" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36" s="38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F37" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F38" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="G38" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F39" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="G39" s="38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F40" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="G40" s="38" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F41" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="G41" s="38" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F42" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="G42" s="38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F43" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="G43" s="38" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F44" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="G44" s="38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F45" s="38" t="s">
+    <row r="47" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F47" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G47" s="38" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F46" s="38" t="s">
+    <row r="48" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F48" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="G46" s="38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F47" s="38" t="s">
+      <c r="G48" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="G47" s="38" t="s">
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F49" s="38" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F48" s="38" t="s">
+      <c r="G49" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="G48" s="38" t="s">
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F50" s="38" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F49" s="38" t="s">
+      <c r="G50" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G49" s="38" t="s">
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.75">
+      <c r="F51" s="38" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F50" s="38" t="s">
+      <c r="G51" s="38" t="s">
         <v>169</v>
-      </c>
-      <c r="G50" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F51" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G51" s="38" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1730,12 +1736,12 @@
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1830,7 +1836,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2115,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2210,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2305,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2400,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2511,7 +2517,7 @@
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2528,12 +2534,12 @@
       <selection activeCell="D7" sqref="D7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2628,7 +2634,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2828,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2923,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3018,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3123,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3218,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3340,12 +3346,12 @@
       <selection activeCell="D7" sqref="D7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -3440,7 +3446,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3545,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3640,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3830,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3935,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4030,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4151,12 +4157,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -4251,7 +4257,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4346,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4441,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4536,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4631,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4726,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4821,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4932,12 +4938,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -5032,7 +5038,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5127,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5222,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5317,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5412,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5507,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5602,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5713,12 +5719,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -5813,7 +5819,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5908,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6003,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6098,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6193,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6288,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6383,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6494,12 +6500,12 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -6594,7 +6600,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6689,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6784,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6879,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6974,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7069,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -7164,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7266,30 +7272,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A3CC6-8591-4A07-9E4B-1DE39D29E87F}">
-  <dimension ref="A1:AF59"/>
+  <dimension ref="A1:AF62"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="45.5" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="45.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="B3">
         <v>2021</v>
       </c>
@@ -7381,9 +7387,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>2435.88</v>
@@ -7486,9 +7492,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>6652.72</v>
@@ -7591,15 +7597,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="B8">
         <v>2021</v>
       </c>
@@ -7691,9 +7697,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>2435.88</v>
@@ -7786,9 +7792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>6652.72</v>
@@ -7881,63 +7887,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A15" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+      <c r="A16" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A17" s="8" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.75">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="D19" s="8">
         <v>2020</v>
@@ -7967,15 +7973,15 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A20" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="8">
         <v>5.6849999999999996</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="8">
         <v>4750</v>
@@ -7987,30 +7993,30 @@
         <v>3000</v>
       </c>
       <c r="G20" s="8">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="H20" s="8">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="I20" s="8">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="J20" s="8">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A21" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="8">
         <v>3.5710000000000002</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="8">
         <v>2250</v>
@@ -8035,18 +8041,18 @@
       </c>
       <c r="K21" s="8"/>
       <c r="R21" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A22" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="8">
         <v>0.96799999999999997</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="8">
         <v>2500</v>
@@ -8070,15 +8076,15 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A23" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="8">
         <v>8.3800000000000008</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="11">
         <v>2000</v>
@@ -8102,20 +8108,20 @@
         <v>2000</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A24" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="8">
         <v>28.64</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="8">
         <v>2500</v>
@@ -8139,19 +8145,19 @@
         <v>0</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A25" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" s="8">
         <v>39.35</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="8">
         <v>2500</v>
@@ -8166,56 +8172,62 @@
         <v>2500</v>
       </c>
       <c r="H25" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I25" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="J25" s="8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A26" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" s="8">
         <v>4.665</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="14">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E26" s="14">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F26" s="14">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G26" s="14">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H26" s="14">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I26" s="14">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="J26" s="14">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A27" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" s="8">
         <v>1.341</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="8">
         <v>2000</v>
@@ -8239,24 +8251,24 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A28" s="8" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="B28" s="8">
-        <v>6.0380000000000003</v>
+        <v>5.7169999999999996</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="E28" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F28" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G28" s="8">
         <v>2500</v>
@@ -8271,15 +8283,15 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A29" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B29" s="8">
-        <v>6.8730000000000002</v>
+        <v>6.0380000000000003</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="8">
         <v>2500</v>
@@ -8303,758 +8315,858 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="8">
+        <v>6.8730000000000002</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E30" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F30" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G30" s="8">
+        <v>3500</v>
+      </c>
+      <c r="H30" s="8">
+        <v>3500</v>
+      </c>
+      <c r="I30" s="8">
+        <v>3500</v>
+      </c>
+      <c r="J30" s="8">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A31" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="8">
+        <v>12.97</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H31" s="8">
+        <v>2000</v>
+      </c>
+      <c r="I31" s="8">
+        <v>2000</v>
+      </c>
+      <c r="J31" s="8">
+        <v>2000</v>
+      </c>
+      <c r="K31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A32" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1500</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1500</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1500</v>
+      </c>
+      <c r="J32" s="8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="8">
+        <v>8.8849999999999998</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="8">
+        <v>4000</v>
+      </c>
+      <c r="E33" s="8">
+        <v>4000</v>
+      </c>
+      <c r="F33" s="8">
+        <v>4000</v>
+      </c>
+      <c r="G33" s="8">
+        <v>4000</v>
+      </c>
+      <c r="H33" s="8">
+        <v>4000</v>
+      </c>
+      <c r="I33" s="8">
+        <v>4000</v>
+      </c>
+      <c r="J33" s="8">
+        <v>4000</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="8">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E34" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F34" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G34" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H34" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I34" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J34" s="8">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="8">
-        <v>8.8849999999999998</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="8">
+      <c r="B35" s="8">
+        <v>0.624</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="8">
+        <v>4000</v>
+      </c>
+      <c r="E35" s="8">
+        <v>4000</v>
+      </c>
+      <c r="F35" s="8">
+        <v>4000</v>
+      </c>
+      <c r="G35" s="8">
+        <v>4000</v>
+      </c>
+      <c r="H35" s="8">
+        <v>4000</v>
+      </c>
+      <c r="I35" s="8">
+        <v>4000</v>
+      </c>
+      <c r="J35" s="8">
+        <v>4000</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="8">
+        <f>B37-SUM(B20:B35)</f>
+        <v>190.52300000000002</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0</v>
+      </c>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="8">
+        <v>329.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A39" s="15"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A43" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="C44">
+        <v>2021</v>
+      </c>
+      <c r="D44">
+        <v>2022</v>
+      </c>
+      <c r="E44">
+        <v>2023</v>
+      </c>
+      <c r="F44">
+        <v>2024</v>
+      </c>
+      <c r="G44">
+        <v>2025</v>
+      </c>
+      <c r="H44">
+        <v>2026</v>
+      </c>
+      <c r="I44">
+        <v>2027</v>
+      </c>
+      <c r="J44">
+        <v>2028</v>
+      </c>
+      <c r="K44">
+        <v>2029</v>
+      </c>
+      <c r="L44">
+        <v>2030</v>
+      </c>
+      <c r="M44">
+        <v>2031</v>
+      </c>
+      <c r="N44">
+        <v>2032</v>
+      </c>
+      <c r="O44">
+        <v>2033</v>
+      </c>
+      <c r="P44">
+        <v>2034</v>
+      </c>
+      <c r="Q44">
+        <v>2035</v>
+      </c>
+      <c r="R44">
+        <v>2036</v>
+      </c>
+      <c r="S44">
+        <v>2037</v>
+      </c>
+      <c r="T44">
+        <v>2038</v>
+      </c>
+      <c r="U44">
+        <v>2039</v>
+      </c>
+      <c r="V44">
+        <v>2040</v>
+      </c>
+      <c r="W44">
+        <v>2041</v>
+      </c>
+      <c r="X44">
+        <v>2042</v>
+      </c>
+      <c r="Y44">
+        <v>2043</v>
+      </c>
+      <c r="Z44">
+        <v>2044</v>
+      </c>
+      <c r="AA44">
+        <v>2045</v>
+      </c>
+      <c r="AB44">
+        <v>2046</v>
+      </c>
+      <c r="AC44">
+        <v>2047</v>
+      </c>
+      <c r="AD44">
+        <v>2048</v>
+      </c>
+      <c r="AE44">
+        <v>2049</v>
+      </c>
+      <c r="AF44">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="C45" s="5">
+        <f>SUMIFS(E$19:E$35,$A19:$A35,About!$B$2)</f>
+        <v>4750</v>
+      </c>
+      <c r="D45" s="5">
+        <f>SUMIFS(F$19:F$35,$A19:$A35,About!$B$2)</f>
+        <v>3000</v>
+      </c>
+      <c r="E45" s="5">
+        <f>SUMIFS(G$19:G$35,$A19:$A35,About!$B$2)</f>
         <v>5000</v>
       </c>
-      <c r="E30" s="8">
+      <c r="F45" s="5">
+        <f>SUMIFS(H$19:H$35,$A19:$A35,About!$B$2)</f>
         <v>5000</v>
       </c>
-      <c r="F30" s="8">
+      <c r="G45" s="5">
+        <f>SUMIFS(I$19:I$35,$A19:$A35,About!$B$2)</f>
         <v>5000</v>
       </c>
-      <c r="G30" s="8">
+      <c r="H45" s="5">
+        <f>SUMIFS(J$19:J$35,$A19:$A35,About!$B$2)</f>
         <v>5000</v>
       </c>
-      <c r="H30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="I30" s="8">
-        <v>5000</v>
-      </c>
-      <c r="J30" s="8">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="8">
-        <v>4.1760000000000002</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="F31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J31" s="8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="8">
-        <v>0.624</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="E32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="F32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="G32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="H32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="I32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="J32" s="8">
-        <v>4000</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="I45" s="5">
+        <f>SUMIFS(K$19:K$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <f>SUMIFS(L$19:L$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5">
+        <f>SUMIFS(M$19:M$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="5">
+        <f>SUMIFS(N$19:N$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="5">
+        <f>SUMIFS(O$19:O$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="5">
+        <f>SUMIFS(P$19:P$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="5">
+        <f>SUMIFS(Q$19:Q$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="5">
+        <f>SUMIFS(R$19:R$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="5">
+        <f>SUMIFS(S$19:S$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="5">
+        <f>SUMIFS(T$19:T$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="5">
+        <f>SUMIFS(U$19:U$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="T45" s="5">
+        <f>SUMIFS(V$19:V$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="5">
+        <f>SUMIFS(W$19:W$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="5">
+        <f>SUMIFS(X$19:X$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="5">
+        <f>SUMIFS(Y$19:Y$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="5">
+        <f>SUMIFS(Z$19:Z$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="5">
+        <f>SUMIFS(AA$19:AA$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="5">
+        <f>SUMIFS(AB$19:AB$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="5">
+        <f>SUMIFS(AC$19:AC$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AB45" s="5">
+        <f>SUMIFS(AD$19:AD$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="5">
+        <f>SUMIFS(AE$19:AE$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="5">
+        <f>SUMIFS(AF$19:AF$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="5">
+        <f>SUMIFS(AG$19:AG$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="5">
+        <f>SUMIFS(AH$19:AH$35,$A19:$A35,About!$B$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A47" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="8">
-        <f>B34-SUM(B20:B32)</f>
-        <v>210.304</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8">
-        <v>0</v>
-      </c>
-      <c r="I33" s="8">
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
-        <v>0</v>
-      </c>
-      <c r="K33" s="8"/>
-    </row>
-    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="C48">
+        <v>2021</v>
+      </c>
+      <c r="D48">
+        <v>2022</v>
+      </c>
+      <c r="E48">
+        <v>2023</v>
+      </c>
+      <c r="F48">
+        <v>2024</v>
+      </c>
+      <c r="G48">
+        <v>2025</v>
+      </c>
+      <c r="H48">
+        <v>2026</v>
+      </c>
+      <c r="I48">
+        <v>2027</v>
+      </c>
+      <c r="J48">
+        <v>2028</v>
+      </c>
+      <c r="K48">
+        <v>2029</v>
+      </c>
+      <c r="L48">
+        <v>2030</v>
+      </c>
+      <c r="M48">
+        <v>2031</v>
+      </c>
+      <c r="N48">
+        <v>2032</v>
+      </c>
+      <c r="O48">
+        <v>2033</v>
+      </c>
+      <c r="P48">
+        <v>2034</v>
+      </c>
+      <c r="Q48">
+        <v>2035</v>
+      </c>
+      <c r="R48">
+        <v>2036</v>
+      </c>
+      <c r="S48">
+        <v>2037</v>
+      </c>
+      <c r="T48">
+        <v>2038</v>
+      </c>
+      <c r="U48">
+        <v>2039</v>
+      </c>
+      <c r="V48">
+        <v>2040</v>
+      </c>
+      <c r="W48">
+        <v>2041</v>
+      </c>
+      <c r="X48">
+        <v>2042</v>
+      </c>
+      <c r="Y48">
+        <v>2043</v>
+      </c>
+      <c r="Z48">
+        <v>2044</v>
+      </c>
+      <c r="AA48">
+        <v>2045</v>
+      </c>
+      <c r="AB48">
+        <v>2046</v>
+      </c>
+      <c r="AC48">
+        <v>2047</v>
+      </c>
+      <c r="AD48">
+        <v>2048</v>
+      </c>
+      <c r="AE48">
+        <v>2049</v>
+      </c>
+      <c r="AF48">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A49" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="8">
-        <v>329.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38">
-        <v>0.78500000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C41">
-        <v>2021</v>
-      </c>
-      <c r="D41">
-        <v>2022</v>
-      </c>
-      <c r="E41">
-        <v>2023</v>
-      </c>
-      <c r="F41">
-        <v>2024</v>
-      </c>
-      <c r="G41">
-        <v>2025</v>
-      </c>
-      <c r="H41">
-        <v>2026</v>
-      </c>
-      <c r="I41">
-        <v>2027</v>
-      </c>
-      <c r="J41">
-        <v>2028</v>
-      </c>
-      <c r="K41">
-        <v>2029</v>
-      </c>
-      <c r="L41">
-        <v>2030</v>
-      </c>
-      <c r="M41">
-        <v>2031</v>
-      </c>
-      <c r="N41">
-        <v>2032</v>
-      </c>
-      <c r="O41">
-        <v>2033</v>
-      </c>
-      <c r="P41">
-        <v>2034</v>
-      </c>
-      <c r="Q41">
-        <v>2035</v>
-      </c>
-      <c r="R41">
-        <v>2036</v>
-      </c>
-      <c r="S41">
-        <v>2037</v>
-      </c>
-      <c r="T41">
-        <v>2038</v>
-      </c>
-      <c r="U41">
-        <v>2039</v>
-      </c>
-      <c r="V41">
-        <v>2040</v>
-      </c>
-      <c r="W41">
-        <v>2041</v>
-      </c>
-      <c r="X41">
-        <v>2042</v>
-      </c>
-      <c r="Y41">
-        <v>2043</v>
-      </c>
-      <c r="Z41">
-        <v>2044</v>
-      </c>
-      <c r="AA41">
-        <v>2045</v>
-      </c>
-      <c r="AB41">
-        <v>2046</v>
-      </c>
-      <c r="AC41">
-        <v>2047</v>
-      </c>
-      <c r="AD41">
-        <v>2048</v>
-      </c>
-      <c r="AE41">
-        <v>2049</v>
-      </c>
-      <c r="AF41">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C42" s="5">
-        <f>SUMIFS(E$19:E$32,$A19:$A32,About!$B$2)</f>
-        <v>4750</v>
-      </c>
-      <c r="D42" s="5">
-        <f>SUMIFS(F$19:F$32,$A19:$A32,About!$B$2)</f>
-        <v>3000</v>
-      </c>
-      <c r="E42" s="5">
-        <f>SUMIFS(G$19:G$32,$A19:$A32,About!$B$2)</f>
-        <v>3000</v>
-      </c>
-      <c r="F42" s="5">
-        <f>SUMIFS(H$19:H$32,$A19:$A32,About!$B$2)</f>
-        <v>2400</v>
-      </c>
-      <c r="G42" s="5">
-        <f>SUMIFS(I$19:I$32,$A19:$A32,About!$B$2)</f>
-        <v>2400</v>
-      </c>
-      <c r="H42" s="5">
-        <f>SUMIFS(J$19:J$32,$A19:$A32,About!$B$2)</f>
-        <v>2400</v>
-      </c>
-      <c r="I42" s="5">
-        <f>SUMIFS(K$19:K$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="5">
-        <f>SUMIFS(L$19:L$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="5">
-        <f>SUMIFS(M$19:M$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="5">
-        <f>SUMIFS(N$19:N$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="5">
-        <f>SUMIFS(O$19:O$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="5">
-        <f>SUMIFS(P$19:P$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="5">
-        <f>SUMIFS(Q$19:Q$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P42" s="5">
-        <f>SUMIFS(R$19:R$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="5">
-        <f>SUMIFS(S$19:S$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R42" s="5">
-        <f>SUMIFS(T$19:T$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S42" s="5">
-        <f>SUMIFS(U$19:U$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T42" s="5">
-        <f>SUMIFS(V$19:V$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U42" s="5">
-        <f>SUMIFS(W$19:W$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V42" s="5">
-        <f>SUMIFS(X$19:X$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W42" s="5">
-        <f>SUMIFS(Y$19:Y$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X42" s="5">
-        <f>SUMIFS(Z$19:Z$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="5">
-        <f>SUMIFS(AA$19:AA$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Z42" s="5">
-        <f>SUMIFS(AB$19:AB$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AA42" s="5">
-        <f>SUMIFS(AC$19:AC$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AB42" s="5">
-        <f>SUMIFS(AD$19:AD$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AC42" s="5">
-        <f>SUMIFS(AE$19:AE$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AD42" s="5">
-        <f>SUMIFS(AF$19:AF$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="5">
-        <f>SUMIFS(AG$19:AG$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="AF42" s="5">
-        <f>SUMIFS(AH$19:AH$32,$A19:$A32,About!$B$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C45">
-        <v>2021</v>
-      </c>
-      <c r="D45">
-        <v>2022</v>
-      </c>
-      <c r="E45">
-        <v>2023</v>
-      </c>
-      <c r="F45">
-        <v>2024</v>
-      </c>
-      <c r="G45">
-        <v>2025</v>
-      </c>
-      <c r="H45">
-        <v>2026</v>
-      </c>
-      <c r="I45">
-        <v>2027</v>
-      </c>
-      <c r="J45">
-        <v>2028</v>
-      </c>
-      <c r="K45">
-        <v>2029</v>
-      </c>
-      <c r="L45">
-        <v>2030</v>
-      </c>
-      <c r="M45">
-        <v>2031</v>
-      </c>
-      <c r="N45">
-        <v>2032</v>
-      </c>
-      <c r="O45">
-        <v>2033</v>
-      </c>
-      <c r="P45">
-        <v>2034</v>
-      </c>
-      <c r="Q45">
-        <v>2035</v>
-      </c>
-      <c r="R45">
-        <v>2036</v>
-      </c>
-      <c r="S45">
-        <v>2037</v>
-      </c>
-      <c r="T45">
-        <v>2038</v>
-      </c>
-      <c r="U45">
-        <v>2039</v>
-      </c>
-      <c r="V45">
-        <v>2040</v>
-      </c>
-      <c r="W45">
-        <v>2041</v>
-      </c>
-      <c r="X45">
-        <v>2042</v>
-      </c>
-      <c r="Y45">
-        <v>2043</v>
-      </c>
-      <c r="Z45">
-        <v>2044</v>
-      </c>
-      <c r="AA45">
-        <v>2045</v>
-      </c>
-      <c r="AB45">
-        <v>2046</v>
-      </c>
-      <c r="AC45">
-        <v>2047</v>
-      </c>
-      <c r="AD45">
-        <v>2048</v>
-      </c>
-      <c r="AE45">
-        <v>2049</v>
-      </c>
-      <c r="AF45">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5">
-        <f>B4+C42</f>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5">
+        <f>B4+C45</f>
         <v>7185.88</v>
       </c>
-      <c r="D46" s="5">
-        <f t="shared" ref="D46:AF46" si="3">C4+D42</f>
+      <c r="D49" s="5">
+        <f t="shared" ref="D49:AF49" si="3">C4+D45</f>
         <v>4697.08</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E49" s="5">
         <f t="shared" si="3"/>
-        <v>4020.0425</v>
-      </c>
-      <c r="F46" s="5">
+        <v>6020.0424999999996</v>
+      </c>
+      <c r="F49" s="5">
         <f t="shared" si="3"/>
-        <v>3400.8575000000001</v>
-      </c>
-      <c r="G46" s="5">
+        <v>6000.8575000000001</v>
+      </c>
+      <c r="G49" s="5">
         <f t="shared" si="3"/>
-        <v>3502.7775000000001</v>
-      </c>
-      <c r="H46" s="5">
+        <v>6102.7775000000001</v>
+      </c>
+      <c r="H49" s="5">
         <f t="shared" si="3"/>
-        <v>3457.2825000000003</v>
-      </c>
-      <c r="I46" s="5">
+        <v>6057.2825000000003</v>
+      </c>
+      <c r="I49" s="5">
         <f t="shared" si="3"/>
         <v>1022.79</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J49" s="5">
         <f t="shared" si="3"/>
         <v>1024.8150000000001</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K49" s="5">
         <f t="shared" si="3"/>
         <v>1031.5474999999999</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L49" s="5">
         <f t="shared" si="3"/>
         <v>1089.8074999999999</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M49" s="5">
         <f t="shared" si="3"/>
         <v>1145.5925</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N49" s="5">
         <f t="shared" si="3"/>
         <v>1156.375</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P46" s="5">
+      <c r="P49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="5">
+      <c r="Q49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R46" s="5">
+      <c r="R49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S46" s="5">
+      <c r="S49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T46" s="5">
+      <c r="T49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U46" s="5">
+      <c r="U49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V46" s="5">
+      <c r="V49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W46" s="5">
+      <c r="W49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X46" s="5">
+      <c r="X49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y46" s="5">
+      <c r="Y49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z46" s="5">
+      <c r="Z49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA46" s="5">
+      <c r="AA49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB46" s="5">
+      <c r="AB49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC46" s="5">
+      <c r="AC49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD46" s="5">
+      <c r="AD49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE46" s="5">
+      <c r="AE49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF46" s="5">
+      <c r="AF49" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="5">
-        <f>B5+C42</f>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="A50" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="5">
+        <f>B5+C45</f>
         <v>11402.720000000001</v>
       </c>
-      <c r="D47" s="5">
-        <f t="shared" ref="D47:AF47" si="4">C5+D42</f>
+      <c r="D50" s="5">
+        <f t="shared" ref="D50:AF50" si="4">C5+D45</f>
         <v>6617.05</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E50" s="5">
         <f t="shared" si="4"/>
-        <v>4020.0425</v>
-      </c>
-      <c r="F47" s="5">
+        <v>6020.0424999999996</v>
+      </c>
+      <c r="F50" s="5">
         <f t="shared" si="4"/>
-        <v>3400.8575000000001</v>
-      </c>
-      <c r="G47" s="5">
+        <v>6000.8575000000001</v>
+      </c>
+      <c r="G50" s="5">
         <f t="shared" si="4"/>
-        <v>3502.7775000000001</v>
-      </c>
-      <c r="H47" s="5">
+        <v>6102.7775000000001</v>
+      </c>
+      <c r="H50" s="5">
         <f t="shared" si="4"/>
-        <v>3457.2825000000003</v>
-      </c>
-      <c r="I47" s="5">
+        <v>6057.2825000000003</v>
+      </c>
+      <c r="I50" s="5">
         <f t="shared" si="4"/>
         <v>1022.79</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J50" s="5">
         <f t="shared" si="4"/>
         <v>1024.8150000000001</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K50" s="5">
         <f t="shared" si="4"/>
         <v>1031.5474999999999</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L50" s="5">
         <f t="shared" si="4"/>
         <v>1089.8074999999999</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M50" s="5">
         <f t="shared" si="4"/>
         <v>1145.5925</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N50" s="5">
         <f t="shared" si="4"/>
         <v>1156.375</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P47" s="5">
+      <c r="P50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="5">
+      <c r="Q50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R47" s="5">
+      <c r="R50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S47" s="5">
+      <c r="S50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T47" s="5">
+      <c r="T50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U47" s="5">
+      <c r="U50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V47" s="5">
+      <c r="V50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W47" s="5">
+      <c r="W50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X47" s="5">
+      <c r="X50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y47" s="5">
+      <c r="Y50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z47" s="5">
+      <c r="Z50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA47" s="5">
+      <c r="AA50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB47" s="5">
+      <c r="AB50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AC47" s="5">
+      <c r="AC50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD47" s="5">
+      <c r="AD50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE47" s="5">
+      <c r="AE50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF47" s="5">
+      <c r="AF50" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="16"/>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.75">
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9074,19 +9186,19 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="51.83203125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="23" customWidth="1"/>
-    <col min="5" max="38" width="7.5" style="23" customWidth="1"/>
-    <col min="39" max="16384" width="12.5" style="23"/>
+    <col min="1" max="1" width="51.81640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" style="23" customWidth="1"/>
+    <col min="5" max="38" width="7.453125" style="23" customWidth="1"/>
+    <col min="39" max="16384" width="12.453125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -9126,9 +9238,9 @@
       <c r="AK1" s="22"/>
       <c r="AL1" s="22"/>
     </row>
-    <row r="2" spans="1:38" ht="105" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" ht="108.25" x14ac:dyDescent="0.75">
       <c r="A2" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -9168,7 +9280,7 @@
       <c r="AK2" s="25"/>
       <c r="AL2" s="25"/>
     </row>
-    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -9208,9 +9320,9 @@
       <c r="AK3" s="25"/>
       <c r="AL3" s="25"/>
     </row>
-    <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A4" s="25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" s="35">
         <v>40000</v>
@@ -9252,9 +9364,9 @@
       <c r="AK4" s="25"/>
       <c r="AL4" s="25"/>
     </row>
-    <row r="5" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" s="35">
         <v>7500</v>
@@ -9296,7 +9408,7 @@
       <c r="AK5" s="25"/>
       <c r="AL5" s="25"/>
     </row>
-    <row r="6" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -9336,29 +9448,29 @@
       <c r="AK6" s="25"/>
       <c r="AL6" s="25"/>
     </row>
-    <row r="7" spans="1:38" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A7" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B7" s="27">
         <f>B4*$B$16*$B$14</f>
         <v>27004</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A8" s="26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B8" s="27">
         <f>B4*B14</f>
         <v>31400</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A9" s="26"/>
       <c r="B9" s="27"/>
     </row>
-    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="23">
         <v>2023</v>
       </c>
@@ -9390,9 +9502,9 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B11" s="36">
         <f>C36</f>
@@ -9435,9 +9547,9 @@
         <v>10279.777009851599</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A13" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -9477,108 +9589,108 @@
       <c r="AK13" s="22"/>
       <c r="AL13" s="22"/>
     </row>
-    <row r="14" spans="1:38" ht="14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A14" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" s="26">
         <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A15" s="26"/>
     </row>
-    <row r="16" spans="1:38" ht="14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A16" s="26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B16" s="26">
         <v>0.86</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:33" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:33" ht="14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="19" spans="1:33" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A19" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="13.5" x14ac:dyDescent="0.7">
+      <c r="A20" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="22" spans="1:33" ht="40.5" x14ac:dyDescent="0.7">
+      <c r="A22" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="C22" s="26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:33" ht="45" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="D22" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="27" x14ac:dyDescent="0.7">
+      <c r="A23" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B23" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C23" s="28" t="s">
         <v>61</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>64</v>
       </c>
       <c r="D23" s="27">
         <f>B5*B14</f>
         <v>5887.5</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" ht="27" x14ac:dyDescent="0.7">
       <c r="A24" s="26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B24" s="24">
         <v>3</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D24" s="27">
         <f>D23</f>
         <v>5887.5</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="27" x14ac:dyDescent="0.7">
       <c r="A25" s="26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B25" s="29">
         <v>44657</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D25" s="27">
         <f>B4*B14</f>
         <v>31400</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:33" ht="14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="27" spans="1:33" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A27" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" ht="14" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A28" s="30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -9613,7 +9725,7 @@
       <c r="AF28" s="30"/>
       <c r="AG28" s="30"/>
     </row>
-    <row r="29" spans="1:33" ht="14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A29" s="31"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -9648,9 +9760,9 @@
       <c r="AF29" s="30"/>
       <c r="AG29" s="30"/>
     </row>
-    <row r="30" spans="1:33" ht="14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A30" s="31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -9685,9 +9797,9 @@
       <c r="AF30" s="30"/>
       <c r="AG30" s="30"/>
     </row>
-    <row r="31" spans="1:33" ht="14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A31" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B31" s="32">
         <v>2022</v>
@@ -9779,9 +9891,9 @@
       <c r="AE31" s="30"/>
       <c r="AF31" s="30"/>
     </row>
-    <row r="32" spans="1:33" ht="14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A32" s="30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B32" s="33">
         <v>652.15881300000001</v>
@@ -9873,9 +9985,9 @@
       <c r="AE32" s="34"/>
       <c r="AF32" s="30"/>
     </row>
-    <row r="33" spans="1:32" ht="14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A33" s="30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B33" s="33">
         <v>252.12297100000001</v>
@@ -9967,9 +10079,9 @@
       <c r="AE33" s="34"/>
       <c r="AF33" s="30"/>
     </row>
-    <row r="34" spans="1:32" ht="14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A34" s="30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B34" s="33">
         <v>180.61982699999999</v>
@@ -10061,9 +10173,9 @@
       <c r="AE34" s="34"/>
       <c r="AF34" s="30"/>
     </row>
-    <row r="36" spans="1:32" ht="14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" ht="13.5" x14ac:dyDescent="0.7">
       <c r="A36" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B36" s="27">
         <f t="shared" ref="B36:AD36" si="1">SUMPRODUCT(B32:B34,$D$23:$D$25)/SUM(B32:B34)</f>
@@ -10182,746 +10294,746 @@
         <v>9558.932689351499</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:32" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="14" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="38" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="39" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="40" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="41" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="42" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="43" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="44" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="45" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="46" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="47" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="48" spans="1:32" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="49" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="50" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="51" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="52" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="53" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="54" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="55" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="56" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="57" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="58" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="59" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="60" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="61" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="62" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="63" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="64" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="65" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="66" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="67" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="68" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="69" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="70" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="71" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="72" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="73" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="74" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="75" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="76" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="77" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="78" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="79" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="80" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="81" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="82" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="83" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="84" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="85" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="86" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="87" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="88" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="89" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="90" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="91" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="92" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="93" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="94" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="95" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="96" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="97" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="98" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="99" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="100" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="101" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="102" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="103" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="104" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="105" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="106" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="107" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="108" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="109" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="110" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="111" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="112" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="113" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="114" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="115" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="116" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="117" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="118" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="119" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="120" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="121" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="122" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="123" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="124" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="125" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="126" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="127" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="128" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="129" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="130" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="131" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="132" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="133" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="134" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="135" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="136" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="137" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="138" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="139" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="140" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="141" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="142" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="143" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="144" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="145" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="146" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="147" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="148" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="149" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="150" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="151" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="152" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="153" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="154" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="155" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="156" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="157" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="158" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="159" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="160" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="161" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="162" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="163" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="164" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="165" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="166" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="167" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="168" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="169" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="170" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="171" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="172" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="173" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="174" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="175" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="176" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="177" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="178" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="179" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="180" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="181" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="182" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="183" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="184" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="185" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="186" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="187" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="188" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="189" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="190" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="191" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="192" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="193" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="194" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="195" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="196" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="197" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="198" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="199" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="200" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="201" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="202" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="203" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="204" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="205" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="206" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="207" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="208" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="209" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="210" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="211" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="212" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="213" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="214" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="215" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="216" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="217" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="218" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="219" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="220" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="221" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="222" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="223" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="224" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="225" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="226" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="227" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="228" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="229" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="230" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="231" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="232" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="233" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="234" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="235" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="236" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="237" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="238" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="239" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="240" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="241" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="242" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="243" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="244" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="245" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="246" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="247" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="248" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="249" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="250" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="251" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="252" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="253" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="254" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="255" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="256" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="257" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="258" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="259" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="260" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="261" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="262" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="263" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="264" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="265" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="266" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="267" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="268" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="269" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="270" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="271" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="272" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="273" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="274" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="275" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="276" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="277" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="278" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="279" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="280" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="281" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="282" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="283" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="284" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="285" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="286" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="287" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="288" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="289" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="290" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="291" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="292" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="293" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="294" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="295" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="296" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="297" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="298" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="299" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="300" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="301" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="302" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="303" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="304" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="305" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="306" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="307" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="308" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="309" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="310" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="311" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="312" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="313" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="314" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="315" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="316" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="317" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="318" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="319" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="320" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="321" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="322" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="323" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="324" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="325" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="326" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="327" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="328" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="329" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="330" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="331" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="332" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="333" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="334" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="335" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="336" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="337" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="338" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="339" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="340" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="341" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="342" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="343" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="344" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="345" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="346" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="347" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="348" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="349" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="350" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="351" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="352" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="353" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="354" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="355" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="356" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="357" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="358" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="359" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="360" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="361" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="362" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="363" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="364" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="365" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="366" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="367" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="368" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="369" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="370" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="371" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="372" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="373" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="374" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="375" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="376" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="377" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="378" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="379" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="380" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="381" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="382" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="383" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="384" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="385" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="386" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="387" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="388" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="389" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="390" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="391" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="392" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="393" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="394" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="395" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="396" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="397" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="398" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="399" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="400" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="401" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="402" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="403" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="404" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="405" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="406" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="407" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="408" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="409" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="410" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="411" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="412" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="413" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="414" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="415" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="416" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="417" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="418" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="419" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="420" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="421" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="422" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="423" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="424" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="425" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="426" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="427" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="428" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="429" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="430" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="431" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="432" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="433" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="434" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="435" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="436" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="437" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="438" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="439" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="440" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="441" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="442" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="443" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="444" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="445" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="446" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="447" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="448" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="449" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="450" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="451" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="452" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="453" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="454" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="455" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="456" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="457" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="458" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="459" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="460" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="461" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="462" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="463" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="464" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="465" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="466" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="467" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="468" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="469" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="470" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="471" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="472" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="473" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="474" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="475" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="476" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="477" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="478" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="479" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="480" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="481" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="482" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="483" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="484" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="485" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="486" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="487" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="488" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="489" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="490" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="491" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="492" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="493" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="494" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="495" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="496" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="497" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="498" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="499" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="500" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="501" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="502" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="503" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="504" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="505" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="506" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="507" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="508" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="509" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="510" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="511" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="512" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="513" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="514" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="515" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="516" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="517" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="518" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="519" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="520" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="521" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="522" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="523" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="524" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="525" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="526" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="527" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="528" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="529" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="530" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="531" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="532" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="533" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="534" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="535" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="536" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="537" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="538" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="539" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="540" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="541" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="542" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="543" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="544" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="545" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="546" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="547" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="548" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="549" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="550" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="551" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="552" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="553" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="554" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="555" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="556" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="557" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="558" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="559" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="560" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="561" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="562" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="563" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="564" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="565" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="566" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="567" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="568" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="569" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="570" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="571" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="572" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="573" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="574" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="575" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="576" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="577" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="578" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="579" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="580" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="581" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="582" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="583" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="584" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="585" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="586" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="587" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="588" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="589" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="590" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="591" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="592" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="593" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="594" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="595" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="596" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="597" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="598" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="599" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="600" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="601" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="602" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="603" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="604" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="605" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="606" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="607" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="608" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="609" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="610" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="611" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="612" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="613" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="614" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="615" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="616" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="617" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="618" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="619" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="620" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="621" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="622" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="623" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="624" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="625" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="626" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="627" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="628" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="629" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="630" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="631" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="632" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="633" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="634" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="635" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="636" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="637" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="638" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="639" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="640" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="641" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="642" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="643" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="644" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="645" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="646" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="647" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="648" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="649" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="650" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="651" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="652" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="653" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="654" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="655" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="656" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="657" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="658" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="659" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="660" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="661" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="662" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="663" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="664" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="665" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="666" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="667" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="668" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="669" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="670" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="671" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="672" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="673" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="674" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="675" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="676" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="677" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="678" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="679" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="680" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="681" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="682" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="683" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="684" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="685" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="686" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="687" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="688" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="689" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="690" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="691" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="692" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="693" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="694" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="695" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="696" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="697" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="698" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="699" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="700" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="701" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="702" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="703" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="704" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="705" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="706" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="707" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="708" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="709" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="710" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="711" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="712" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="713" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="714" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="715" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="716" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="717" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="718" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="719" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="720" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="721" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="722" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="723" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="724" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="725" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="726" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="727" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="728" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="729" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="730" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="731" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="732" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="733" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="734" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="735" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="736" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="737" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="738" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="739" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="740" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="741" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="742" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="743" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="744" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="745" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="746" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="747" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="748" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="749" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="750" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="751" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="752" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="753" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="754" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="755" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="756" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="757" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="758" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="759" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="760" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="761" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="762" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="763" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="764" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="765" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="766" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="767" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="768" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="769" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="770" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="771" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="772" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="773" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="774" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="775" ht="13.5" x14ac:dyDescent="0.7"/>
+    <row r="776" ht="13.5" x14ac:dyDescent="0.7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -10939,7 +11051,7 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10953,16 +11065,16 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="2" max="2" width="53.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="53.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -11057,132 +11169,132 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19">
-        <f>'Passenger Vehicle Calculations'!C46</f>
+        <f>'Passenger Vehicle Calculations'!C49</f>
         <v>7185.88</v>
       </c>
       <c r="C2" s="19">
-        <f>'Passenger Vehicle Calculations'!D46</f>
+        <f>'Passenger Vehicle Calculations'!D49</f>
         <v>4697.08</v>
       </c>
       <c r="D2" s="19">
-        <f>'Passenger Vehicle Calculations'!E46</f>
-        <v>4020.0425</v>
+        <f>'Passenger Vehicle Calculations'!E49</f>
+        <v>6020.0424999999996</v>
       </c>
       <c r="E2" s="19">
-        <f>'Passenger Vehicle Calculations'!F46</f>
-        <v>3400.8575000000001</v>
+        <f>'Passenger Vehicle Calculations'!F49</f>
+        <v>6000.8575000000001</v>
       </c>
       <c r="F2" s="19">
-        <f>'Passenger Vehicle Calculations'!G46</f>
-        <v>3502.7775000000001</v>
+        <f>'Passenger Vehicle Calculations'!G49</f>
+        <v>6102.7775000000001</v>
       </c>
       <c r="G2" s="19">
-        <f>'Passenger Vehicle Calculations'!H46</f>
-        <v>3457.2825000000003</v>
+        <f>'Passenger Vehicle Calculations'!H49</f>
+        <v>6057.2825000000003</v>
       </c>
       <c r="H2" s="19">
-        <f>'Passenger Vehicle Calculations'!I46</f>
+        <f>'Passenger Vehicle Calculations'!I49</f>
         <v>1022.79</v>
       </c>
       <c r="I2" s="19">
-        <f>'Passenger Vehicle Calculations'!J46</f>
+        <f>'Passenger Vehicle Calculations'!J49</f>
         <v>1024.8150000000001</v>
       </c>
       <c r="J2" s="19">
-        <f>'Passenger Vehicle Calculations'!K46</f>
+        <f>'Passenger Vehicle Calculations'!K49</f>
         <v>1031.5474999999999</v>
       </c>
       <c r="K2" s="19">
-        <f>'Passenger Vehicle Calculations'!L46</f>
+        <f>'Passenger Vehicle Calculations'!L49</f>
         <v>1089.8074999999999</v>
       </c>
       <c r="L2" s="19">
-        <f>'Passenger Vehicle Calculations'!M46</f>
+        <f>'Passenger Vehicle Calculations'!M49</f>
         <v>1145.5925</v>
       </c>
       <c r="M2" s="19">
-        <f>'Passenger Vehicle Calculations'!N46</f>
+        <f>'Passenger Vehicle Calculations'!N49</f>
         <v>1156.375</v>
       </c>
       <c r="N2" s="19">
-        <f>'Passenger Vehicle Calculations'!O46</f>
+        <f>'Passenger Vehicle Calculations'!O49</f>
         <v>0</v>
       </c>
       <c r="O2" s="19">
-        <f>'Passenger Vehicle Calculations'!P46</f>
+        <f>'Passenger Vehicle Calculations'!P49</f>
         <v>0</v>
       </c>
       <c r="P2" s="19">
-        <f>'Passenger Vehicle Calculations'!Q46</f>
+        <f>'Passenger Vehicle Calculations'!Q49</f>
         <v>0</v>
       </c>
       <c r="Q2" s="19">
-        <f>'Passenger Vehicle Calculations'!R46</f>
+        <f>'Passenger Vehicle Calculations'!R49</f>
         <v>0</v>
       </c>
       <c r="R2" s="19">
-        <f>'Passenger Vehicle Calculations'!S46</f>
+        <f>'Passenger Vehicle Calculations'!S49</f>
         <v>0</v>
       </c>
       <c r="S2" s="19">
-        <f>'Passenger Vehicle Calculations'!T46</f>
+        <f>'Passenger Vehicle Calculations'!T49</f>
         <v>0</v>
       </c>
       <c r="T2" s="19">
-        <f>'Passenger Vehicle Calculations'!U46</f>
+        <f>'Passenger Vehicle Calculations'!U49</f>
         <v>0</v>
       </c>
       <c r="U2" s="19">
-        <f>'Passenger Vehicle Calculations'!V46</f>
+        <f>'Passenger Vehicle Calculations'!V49</f>
         <v>0</v>
       </c>
       <c r="V2" s="19">
-        <f>'Passenger Vehicle Calculations'!W46</f>
+        <f>'Passenger Vehicle Calculations'!W49</f>
         <v>0</v>
       </c>
       <c r="W2" s="19">
-        <f>'Passenger Vehicle Calculations'!X46</f>
+        <f>'Passenger Vehicle Calculations'!X49</f>
         <v>0</v>
       </c>
       <c r="X2" s="19">
-        <f>'Passenger Vehicle Calculations'!Y46</f>
+        <f>'Passenger Vehicle Calculations'!Y49</f>
         <v>0</v>
       </c>
       <c r="Y2" s="19">
-        <f>'Passenger Vehicle Calculations'!Z46</f>
+        <f>'Passenger Vehicle Calculations'!Z49</f>
         <v>0</v>
       </c>
       <c r="Z2" s="19">
-        <f>'Passenger Vehicle Calculations'!AA46</f>
+        <f>'Passenger Vehicle Calculations'!AA49</f>
         <v>0</v>
       </c>
       <c r="AA2" s="19">
-        <f>'Passenger Vehicle Calculations'!AB46</f>
+        <f>'Passenger Vehicle Calculations'!AB49</f>
         <v>0</v>
       </c>
       <c r="AB2" s="19">
-        <f>'Passenger Vehicle Calculations'!AC46</f>
+        <f>'Passenger Vehicle Calculations'!AC49</f>
         <v>0</v>
       </c>
       <c r="AC2" s="19">
-        <f>'Passenger Vehicle Calculations'!AD46</f>
+        <f>'Passenger Vehicle Calculations'!AD49</f>
         <v>0</v>
       </c>
       <c r="AD2" s="19">
-        <f>'Passenger Vehicle Calculations'!AE46</f>
+        <f>'Passenger Vehicle Calculations'!AE49</f>
         <v>0</v>
       </c>
       <c r="AE2" s="19">
-        <f>'Passenger Vehicle Calculations'!AF46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+        <f>'Passenger Vehicle Calculations'!AF49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11277,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11372,7 +11484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11467,132 +11579,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="19">
-        <f>'Passenger Vehicle Calculations'!C47</f>
+        <f>'Passenger Vehicle Calculations'!C50</f>
         <v>11402.720000000001</v>
       </c>
       <c r="C6" s="19">
-        <f>'Passenger Vehicle Calculations'!D47</f>
+        <f>'Passenger Vehicle Calculations'!D50</f>
         <v>6617.05</v>
       </c>
       <c r="D6" s="19">
-        <f>'Passenger Vehicle Calculations'!E47</f>
-        <v>4020.0425</v>
+        <f>'Passenger Vehicle Calculations'!E50</f>
+        <v>6020.0424999999996</v>
       </c>
       <c r="E6" s="19">
-        <f>'Passenger Vehicle Calculations'!F47</f>
-        <v>3400.8575000000001</v>
+        <f>'Passenger Vehicle Calculations'!F50</f>
+        <v>6000.8575000000001</v>
       </c>
       <c r="F6" s="19">
-        <f>'Passenger Vehicle Calculations'!G47</f>
-        <v>3502.7775000000001</v>
+        <f>'Passenger Vehicle Calculations'!G50</f>
+        <v>6102.7775000000001</v>
       </c>
       <c r="G6" s="19">
-        <f>'Passenger Vehicle Calculations'!H47</f>
-        <v>3457.2825000000003</v>
+        <f>'Passenger Vehicle Calculations'!H50</f>
+        <v>6057.2825000000003</v>
       </c>
       <c r="H6" s="19">
-        <f>'Passenger Vehicle Calculations'!I47</f>
+        <f>'Passenger Vehicle Calculations'!I50</f>
         <v>1022.79</v>
       </c>
       <c r="I6" s="19">
-        <f>'Passenger Vehicle Calculations'!J47</f>
+        <f>'Passenger Vehicle Calculations'!J50</f>
         <v>1024.8150000000001</v>
       </c>
       <c r="J6" s="19">
-        <f>'Passenger Vehicle Calculations'!K47</f>
+        <f>'Passenger Vehicle Calculations'!K50</f>
         <v>1031.5474999999999</v>
       </c>
       <c r="K6" s="19">
-        <f>'Passenger Vehicle Calculations'!L47</f>
+        <f>'Passenger Vehicle Calculations'!L50</f>
         <v>1089.8074999999999</v>
       </c>
       <c r="L6" s="19">
-        <f>'Passenger Vehicle Calculations'!M47</f>
+        <f>'Passenger Vehicle Calculations'!M50</f>
         <v>1145.5925</v>
       </c>
       <c r="M6" s="19">
-        <f>'Passenger Vehicle Calculations'!N47</f>
+        <f>'Passenger Vehicle Calculations'!N50</f>
         <v>1156.375</v>
       </c>
       <c r="N6" s="19">
-        <f>'Passenger Vehicle Calculations'!O47</f>
+        <f>'Passenger Vehicle Calculations'!O50</f>
         <v>0</v>
       </c>
       <c r="O6" s="19">
-        <f>'Passenger Vehicle Calculations'!P47</f>
+        <f>'Passenger Vehicle Calculations'!P50</f>
         <v>0</v>
       </c>
       <c r="P6" s="19">
-        <f>'Passenger Vehicle Calculations'!Q47</f>
+        <f>'Passenger Vehicle Calculations'!Q50</f>
         <v>0</v>
       </c>
       <c r="Q6" s="19">
-        <f>'Passenger Vehicle Calculations'!R47</f>
+        <f>'Passenger Vehicle Calculations'!R50</f>
         <v>0</v>
       </c>
       <c r="R6" s="19">
-        <f>'Passenger Vehicle Calculations'!S47</f>
+        <f>'Passenger Vehicle Calculations'!S50</f>
         <v>0</v>
       </c>
       <c r="S6" s="19">
-        <f>'Passenger Vehicle Calculations'!T47</f>
+        <f>'Passenger Vehicle Calculations'!T50</f>
         <v>0</v>
       </c>
       <c r="T6" s="19">
-        <f>'Passenger Vehicle Calculations'!U47</f>
+        <f>'Passenger Vehicle Calculations'!U50</f>
         <v>0</v>
       </c>
       <c r="U6" s="19">
-        <f>'Passenger Vehicle Calculations'!V47</f>
+        <f>'Passenger Vehicle Calculations'!V50</f>
         <v>0</v>
       </c>
       <c r="V6" s="19">
-        <f>'Passenger Vehicle Calculations'!W47</f>
+        <f>'Passenger Vehicle Calculations'!W50</f>
         <v>0</v>
       </c>
       <c r="W6" s="19">
-        <f>'Passenger Vehicle Calculations'!X47</f>
+        <f>'Passenger Vehicle Calculations'!X50</f>
         <v>0</v>
       </c>
       <c r="X6" s="19">
-        <f>'Passenger Vehicle Calculations'!Y47</f>
+        <f>'Passenger Vehicle Calculations'!Y50</f>
         <v>0</v>
       </c>
       <c r="Y6" s="19">
-        <f>'Passenger Vehicle Calculations'!Z47</f>
+        <f>'Passenger Vehicle Calculations'!Z50</f>
         <v>0</v>
       </c>
       <c r="Z6" s="19">
-        <f>'Passenger Vehicle Calculations'!AA47</f>
+        <f>'Passenger Vehicle Calculations'!AA50</f>
         <v>0</v>
       </c>
       <c r="AA6" s="19">
-        <f>'Passenger Vehicle Calculations'!AB47</f>
+        <f>'Passenger Vehicle Calculations'!AB50</f>
         <v>0</v>
       </c>
       <c r="AB6" s="19">
-        <f>'Passenger Vehicle Calculations'!AC47</f>
+        <f>'Passenger Vehicle Calculations'!AC50</f>
         <v>0</v>
       </c>
       <c r="AC6" s="19">
-        <f>'Passenger Vehicle Calculations'!AD47</f>
+        <f>'Passenger Vehicle Calculations'!AD50</f>
         <v>0</v>
       </c>
       <c r="AD6" s="19">
-        <f>'Passenger Vehicle Calculations'!AE47</f>
+        <f>'Passenger Vehicle Calculations'!AE50</f>
         <v>0</v>
       </c>
       <c r="AE6" s="19">
-        <f>'Passenger Vehicle Calculations'!AF47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+        <f>'Passenger Vehicle Calculations'!AF50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -11687,7 +11799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -11699,19 +11811,19 @@
       </c>
       <c r="D8" s="19">
         <f>D2</f>
-        <v>4020.0425</v>
+        <v>6020.0424999999996</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" ref="E8:AE8" si="0">E2</f>
-        <v>3400.8575000000001</v>
+        <v>6000.8575000000001</v>
       </c>
       <c r="F8" s="19">
         <f t="shared" si="0"/>
-        <v>3502.7775000000001</v>
+        <v>6102.7775000000001</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" si="0"/>
-        <v>3457.2825000000003</v>
+        <v>6057.2825000000003</v>
       </c>
       <c r="H8" s="19">
         <f t="shared" si="0"/>
@@ -11827,12 +11939,12 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -11927,7 +12039,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12032,7 +12144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12127,7 +12239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12222,7 +12334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12317,7 +12429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12422,7 +12534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -12517,7 +12629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12638,12 +12750,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -12738,7 +12850,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12833,7 +12945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12928,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13023,7 +13135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13118,7 +13230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13213,7 +13325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13308,7 +13420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13415,16 +13527,16 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -13519,7 +13631,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13614,7 +13726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13709,7 +13821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13804,7 +13916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13899,7 +14011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13994,7 +14106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -14089,7 +14201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -14200,12 +14312,12 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -14300,7 +14412,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14395,7 +14507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14490,7 +14602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14585,7 +14697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14680,7 +14792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14775,7 +14887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -14870,7 +14982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
